--- a/suspectCounted1.xlsx
+++ b/suspectCounted1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\מאגרים\statisticExel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\python\countWordExel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA1EAB2-DB7E-465D-95EE-FF9E449EBD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500E5D7-E358-40AF-A7E5-8751FC2C5EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="682">
   <si>
     <t>Serie</t>
   </si>
@@ -177,13 +177,7 @@
     <t>https://www.camoni.co.il/411804/119180</t>
   </si>
   <si>
-    <t>היום ב 11:00 קטעו את העבודה שלנו בתל אביב בומים ואזעקות...רצנו לממד ( לקוחה לא רצתה לנתק איתי את השיחה ובעל הבית שלי קרא לי 'תנתקי ובואי כבר לממד!'.חזרנו לעבודה ( אני מזכירה : שירות לקוחות. ) אבל מאז אני מתקשה להתרכז + חווה רעידות פנימיות וחיצוניות...שלשום חזרתי מבילוי עם חברים במסעדה בראשלצ 'רק' לא סיפרתי לאף אחד עד כמה היייתי דרוכה ולחוצה כל הדרך לשם תל אביב-ראשלצ ואחכ ראשלצ- פתח תקוה...פשוט הייתי 'על קוצים'. עברו רק 17 ימים של לחימה ( אני מרגישה שעוד ימים קשים לא מעטים צפויים לנו ) ואני כבר מרגישה שאני נשברת...שלשום התפרצתי בעבודה על 2 המנהלים שלי ( לא פחות ). אני מאד רוצה יום שבת לנסוע לסרט 'רק' שהוא מציג ברמת גן ואני ממש מפחדת לנהוג לשם כי אני לא סומכת על עצמי שאצליח לשמור על קור רוח בזמן הנהיגה ( נהיגה = גם ככה אישיו בשבילי ). העניין הוא שאני גרה לבד. חיה לבד. ואם אין אני לא 'אקח את עצמי' לסרט אף אחד לא יעשה את זה ( באופן טבעי החברים שלי וגם האחים שלי מעדיפים להיות קודם עם בני משפחה. אחי התאום מעדיף להיות באופן טבעי ומובן עם אשתו והילדים. ואחותי מעדיפה להיות באופן טבעי ומובן עם החתולים והחבר. החתולים = ילדים לכל דבר אין לאחותי ילדים. ואני מה ל-ב-ד).רק 17 יום עברו ואני כבר כל כך מותשת פיזית ונפשית ...פעם1 בחיים שלי שאני מתחילה להרהר ברצינות באופציה ( הרחוקה מאד אך בכל זאת אופציה.?.?.?.?.) לעזוב את הארץ הזו...לתמיד...הבטיחו לנו ארץ זבת חלב ודבש ואנו מקבלים ארץ זבת דם עצב ודמעות (+ אני כבר 'קיבלתי' את מנת הכאב והדמעות האישיות שלי בגין כל מה שכבר עברתי עד היום...האירועים האישיים הקשים + זכרון התמונות הזוועתיות של תמונות שקטלגתי בעיתון ידיעות בתחילת שנות אלפיים תמונות זוועה של הרוגים ופצועים לפני צנזורה חוזרים אף הם אלי.</t>
-  </si>
-  <si>
     <t>שר 42</t>
-  </si>
-  <si>
-    <t>https://www.camoni.co.il/411804/119178</t>
   </si>
   <si>
     <t>כל רעש מקפיץ לא מסוגל להתנתק מהחדשות מהאזעקות הכל נשמע כמו אזעקוןת.
@@ -414,26 +408,6 @@
     <t>https://www.facebook.com/Open.University.of.Israel.Confessions/posts/186880611932967</t>
   </si>
   <si>
-    <t>14127#. . להציג טיפה את החוויה שלי איתה כדאי להראות בכמה פנים היא יכולה להתבטא. אני התגייסתי לצבא בסביבות שנה לפני מבצע צוק איתן. התגייסתי ליחידה יוקרתית שמקבלים בה 20 אנשים בשנה וכרוכים בה לימודים באונברסיטה בתחילת השירות (לא מפרט את שם היחידה והמוסד ע"מ להשאר אנונימי). בזמן סמסטר ב' של אותה תקופה, קיץ הזוי ולא שגרתי קצת כמו ימים אלו; התחיל לו מבצע צבאי שאינדווידואלית לא היה אמור להשפיע עלי בשום צורה. אני הייתי שקוע לחלוטין במהלך התקופת מבחנים שהייתה אינטנסיבית בטירוף, וידעתי שברגע שהיא נגמרת מוציאים אותנו לפעילות באיזשהו בסיס. לי עצמי לא נשקפה סכנה אז זה לא היה אמור להדאיג אותי המצב, הרי ככה אמרו כולם אז כנראה זה היה נכון.. לצערי המציאות הייתה יותר מורכבת וחבר ילדות שלי שגדלתי איתו נכנס לעזה ולא חזר משם. אני שהייתי מצטיין בתחומי, נכשלתי בכל הקורסים באותו סמסטר. התגובה שקיבלתי ממנהלת התוכנית ומהגופים של אותה אונברסיטה היו בעיקר כתף קרה, והסתכמו בשמור על ממוצע מעל 85 והכל יהיה בסדר. היפכא מסתברא.. לא הכל היה בסדר. אני שקעתי לדיכאון עמוק באותה תקופה ולא הצלחתי לתפקד ובעיקבותיו גם הועפתי מהיחידה. כי הרי אין מקום למורכבות רגשית כאשר יש לך סיווג בטחוני. לקחו לי הרבה שנים של טיפול ללמוד להכיל את המורכבות הזאת. להבין שלא הכול שחור ולבן בעולם. ושלפעמים שגם לגופים שאמורים לדאוג לך יש אינטרסים שונים משלך. 
-עוד שבועיים יחלפו שש שנים למותו של אותו חבר. אני לא אגיע לאזכרה שלו. לא הגעתי לאזכרות שלו בשנים האחרונות. מעדיף לבקר אותו בימים אחרים.
-עדיין קשה לי מידי. מה שרציתי לומר הוא שגם החבר  הזה שלכם שאתם רואים כמצטיין וחסר דאגות, גם עליו עוברים קשיים. ושהחיים לפעמים יותר מורכבים ממה שהם נראים.</t>
-  </si>
-  <si>
-    <t>HUJI Confessions8</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/permalink.php?story_fbid=707510010098269&amp;id=319628048886469</t>
-  </si>
-  <si>
-    <t>13214#. יום הזיכרון - כולנו מתייחדים עם הנופלים והנופלות. מעטים אם בכלל זוכרים את אלו שנותרו מאחור. דוגמא טרייה: יש לי שכנים בבניין ממול ששמו דגל עכשיו בחצר לכבוד יום העצמאות. כיפה סרוגה למופת, ציונות דתית במיטבה, מי שלא מכיר אותם יכול לראות את חזונו של הרב קוק במלוא הדרו הממלכתי והציוני, לתפארת מדינת ישראל. כשהגעתי אליהם לפני שנתיים-שלוש לבקש בנימוס שהילדים לא יכדררו בכדור כי זה מחזיר אותי לרחובות של קלקיליה וחברון, כי הדפיקות החוזרות והקודחות והלא נגמרות - בכל שעות היממה - בום. בום. בום. בום. בום מתחת לחלון שלי, וצרחות, כי "הם בסך הכול ילדים וככה הם משחקים". בצרחות. ולא משנה אם אני סוגר את כל החלונות ושם אטמים ומוזיקה, עדיין שומעים כי אקוסטיקה של מבנים וכל זה. ומה שרק היה להם לומר לי זה "מה אכפת לך שהילדים משחקים קצת" והוציאו אותי איזה טיפוס שונא ילדים, ממש הענק וגנו, איזה שונא חינם וטרחן שרק מחפש מי עושה כיף כדי להוציא את הראש ולבקש קצת שקט. אם תשאלו אותם על אהבת המולדת, הם יצדיעו לכל חיילי צה"ל הגיבורים שלנו, בזיקפה לאומית שלא נגמרת. אבל מה עם החייל הספציפי הזה שחוזר לחברון כל פעם שאחד מ6-7 הילדים שלכם בוחר ברוטציה לעשות מופע של רעש מורט עצבים מתחת לחלון? עם הפיצוצים והעשן והריח של הדם והאנדרנלין והתחושה שאתה הולך להוריד למישהו כדור בראש והעיקר שיפסיקו כבר להתעלל בי</t>
-  </si>
-  <si>
-    <t>HUJI Confessions6</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/permalink.php?story_fbid=655952475254023&amp;id=319628048886469</t>
-  </si>
-  <si>
     <t>9225#. אני באותו תואר מאז צוק איתן.
 בשנה א' שלי הוקפצתי לרצועה.. ומאז לא ממש חזרתי.
 נשרתי מכל הקורסים שלי, החלפתי תואר ועוד תואר ועוד תואר.
@@ -491,32 +465,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/IDFsConfessions/posts/515625925607160</t>
-  </si>
-  <si>
-    <t>שלום לכל חברי הקבוצה. אני מצטער על החפירה.
-אני נאור, חודש הבא אהיה בן 30.
-התגייסתי בשנת 2009 כלוחם ועבר עלי שירות די מעניין. שהשתחררתי מהצבא כבר התחילו לי דכאונות קשים שלא זיהתי מממש כמשהו. שנה לאחר השחרור, הגיע הטלפון ששינה לי את החיים, הודעה קולית על התראת אמת
-צוק איתן התחיל ואנחנו הוקפצנו ככח מילואים. 
-את מה שקרה שם אני לא אוהב לתאר ולספר
-אבל שבוע אחרי שהוא נגמר והייתי בבית 
-בכל פעם שהגיע הערב הייתי מתחיל לבכות
-כמו ילדה קטנה בלי לדעת למה. התעוררתי כל שעתיים ולא הצלחתי לתפקד. שם הפסקתי להיות אותו נאור.
-אני זוכר שפעם אחת שעצמי עיניים חזרו אלי דברים שלא זכרתי שקרו בכלל, כמו אירועים מסויימים שם שרצו לי בראש, הרחתי באף שלי את אבק השריפה, שמעתי באוזניים שלי את הכדורים שורקים, ופוגעים.
-בכל לילה היו לי סיוטים, והגוף שכואב, והכח שנגמר אחרי חמש דקות כאילו אתה בן 99. ניתוקים באמצע היום.עד היום.. ותמיד תמיד תמיד הדחקתי את זה, בטענה של לא עשיתי כלום בחיים חוץ מזה ובגלל זה זה האירוע היחיד שאני זוכר. ככה ההורים שאני גר אצלהם גרמו לי להאמין, ואמרו את זה גם, שאני עצלן, לא רציני, לא יוצלח.. אין בכלל קשר לטראומה תחשוב טוב יהיה טוב. עד לפני שנה שארוסתי לשעבר זרקה אותי בזמן אישפוז, ושם התחילו כל הצרות, כל ההשפעות גדלו פי מאה והשתלטו עלי, אני כל הזמן נזכר בדברים שאני לא זוכר שקרו, אני לא יכול עם זה כבר 6 שנים שזה הדבר היחידי שרץ לי בראש, 6 שנים שאני רואה ומריח מוות.
-ויש לי כל כך הרבה חובות, ואין לי תקווה לצאת מזה
-אני לא חושב שזה אפשרי, ואני כועס על ההורים שלי
-וכל מי שמכיר אותי, ושונא אותם, את כולם.. שהם נתנו לי ליפול כול כך עמוק. 
-אין לי שום אגורה כדי לטפל בעצמי, ורק היום הצלחתי להשיג שני שיחות אצל פסיכיאטר שאני מקווה שיעזרו לי. אני גם לא יודע מה עושים ואיך אני לבד בזה..
-בבקשה תגידו לי שאפשר לחיות עם זה😭
-ולא ככה כמו כלב...
- בבקשה תגידו לי מה הדרך 
-כואב לי</t>
-  </si>
-  <si>
-    <t>Naor Zabari</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/241943576701055/permalink/606664696895606/</t>
   </si>
   <si>
     <t>#יום_הזיכרון
@@ -691,40 +639,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/permalink.php?story_fbid=467896250408276&amp;id=407514199779815</t>
-  </si>
-  <si>
-    <t>זה מפחיד כשמישהו רואה אותך 
-4:17 לפנות בוקר. 
-חושך מוחלט. רק אור אדום מספרות השעון המעורר הארור, שיצלצל עוד שעה וחצי לערך, מאיר את החדר. 
-מנסה לישון.
-סופר כבשים, סוסים, נמרים ומה לא?
-נשימות האחרונות מחד וקול המזגן מנגד. "איך יכול להיות כל כך שקט וכל כך רועש בו זמנית?" אני חושב לעצמי, "זה מבפנים או מבחוץ?"
-פתאום שומע את עצמי לוחש:
-"זה מפחיד כשמישהו רואה אותך יותר טוב ממה שאת רואה את עצמך" 
-רק שאז...המזרן זז, אתה מתהפך ו:
-"ממממ מה?" אתה נאנק מתוך שינה. "אמרתי משהו שואל את הילד?"
-אופס, "שששש.... לא אבא, לך לישון. דיברת לעצמך. סורי״.
-לא מאמין שלא שמתי לב שיצא לי בקול רם! שתי ידיי לופתות בבת אחת את פי לדממה. שיט! פאדיחה, אני מתרגז. מקווה בתוך תוכי שלא שמעו אותי המארחים אותי ואת בני 
-מתעטף בשמיכה ומנסה לשקוע אל תוך יום המחר... אז מה אם יש רק עוד כמה דקות עד שה״מחר״ מגיע.
-לרגע נדמה לי שאני מצליח....ממממ לא... - הרגע עבר.
-שוב מחשבות על המלחמה על חברים שלא יחזרו על פחדים מה יהיה. יאללה נו, בואו, נכנעתי ממילא.
-לפתע, נכנסים לשם עוד קולות. לרקע הזה. 
-קולות התיקתוק של השעון בסלון (איך הוא הגיע לפה?), 
-המקרר פורק את תלאות היום, מתקן מי העדן מחליט להפליץ עוד בועה, 
-תנים מייללים בחוץ (מה נסגר עם זה?)...
-והמחשבות לא עוזבות אותי. (בשלב זה אבהיר שאמנם אני משתמש במילה "מחשבות" אבל אני בעצם מתכוונת ל"פחדים"... אז ביננו? השורה היא: "הפחדים לא עוזבים אותי").
-הגן הנעול הזה של ליבי - הייתכן והוא נפתח אליכם חברים יקרים שלי ❤
-ולמה דווקא אלייכם? 
-ולמה דווקא עכשיו? 
-השקט נחתך, אתה קופץ שוב בבאלה,  (מהמלחמה) הצבא דופק לך ברכייה כאילו במקרה,
-ושוב כל המזרן רועד, אתה משנה תנוחה, ובא לציון גואל.
-זהו, הלך הלילה סופית.</t>
-  </si>
-  <si>
-    <t>יוסף חיים אסולין</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/937402916425411/permalink/1626988447466851/</t>
   </si>
   <si>
     <t>#2646.  בערך חצי שנה אחרי איזו פעילות אחת בסדיר. תקופה ארוכה פחדתי מלישון אצל בנות בגלל זה כי תמיד בסרטים רואים איך הגבר קם באמצע הלילה ודופק מכות מתוך שינה לזו שלידו. באיזשהו שלב החלטתי לחזור לעולם הדייטים ועם ה3 שזה התפרץ כשהייתי אצלן- הן כולן היו חמודות, הרגיעו אותי וזה בכלל לא הפריע להן. אז תודה, אתן באמת המין היפה.</t>
@@ -1592,13 +1506,6 @@
     <t>לא מצאתי שוב</t>
   </si>
   <si>
-    <t xml:space="preserve">דברים שכתב אח יקר
-מבקש עזרה כל מי שיכול לשתף יבורך.   נשבר לי טוטלית!  נשבר לי למצוא עוד ועוד דרכים יצירתיות להסביר למי שלא רוצה להבין נשבר לי מלנסות נשבר לי מלחלום ונשבר לי מלקוות פשוט נשבר לי! מה הטעם לעזאזל? הרי כל מי שבא לו להתעלל בי רשאי ויכול ולי הבורג הקטן החלש והמסכן אין הרבה מה לעשות בעניין. תפנה לבית משפט אתם אומרים? אני אומר שגם צדק לא מקבלים בחינם וזה בהנחה שמצאת עו"ד שמבין על מה הוא מקשקש ושלא ימכור אותך ושופט שלא הגיע עם אנסין מהבית. תשמור על אופטימיות? תהיה סבלני ותקווה לטוב? חלאס עם החרטות! מדובר בחיים שלי וחשוב מכך של הילדים שלי ומה לעשות שהם לא ממש פיקניק של קלישאות. לאורך השנים הייתי אזרח מתפקד בחברה, עבדתי ברציפות,שירתתי כלוחם בסדיר ובמילואים פעילים, התחתנתי והקמתי בית בישראל. כאיש מילואים שירתתי בפעילויות ומבצעים כחלק מהמערך המילואים של חטיבת הצנחנים.  בשנת 2006 גוייסתי לשירות מילואים במסגרת מלחמת לבנון השנייה. בעת השירות נפצעתי נפשית ופיזית. משנת 2007 עד היום.   מאז המלחמה, חיי השתנו. משפחתי התפרקה והתגרשתי,יש לי קשיים אל מול הממסד שלא מכיר בי , אני מתקשה לצאת מהבית,לעבוד, קשריי החברתיים הצטמצמו ואני סובל מהתקפי זעם וחרדה ובעיות שינה. מטופל בכדורים פסיכוטים וקנאביס רפואי   ואם כל זה לא מספיק אני נאלץ לראות איך שוב מגיעות בחירות ושוב מבלבלים את כל הסתומים ומעסיקים אותם בדיונים על שמאל וימין על שחור ולבן ועל מה הוא בכלל כחול לבן כדי שישכחו מהמציאות האיומה שאנחנו חיים בה ופוטרים אותנו בתירוץ הקבוע של תקציב הבטחון אבל אין בטחון מפגיזים לנו את הצורה כבר מעל לעשור ולצערי לא ראיתי יותר מידי לסתות נשמטות עד שזה הגיע למרכז הארץ ואז שוד ושבר העולם כולו עוצר בחריקה כמה טיפשות אדישות וצביעות אפשר לשאת?! ואינה שוב חבורה של טרוריסטים מתמטמים  מדינה שלמה. ובמיוחד את כל הפסטרמתים  מהדרום שנכנסים לחרדות.   אני יודע שעברתי מזמן את סף הקיבולת שלי אבל קיוויתי שייצא משהו מזה שאני דוחק את הגבולות של עצמי כנראה שגם לאשליה המתוקה הזו הגיע הזמן לומר שלום ולפני שאני נדרש לשלם מחיר שאני לא אוכל לשלם אני רוצה לומר לכל המערכת הכל ניסית כדיי שלא הקח את חוק לידיים.   אבל אני סתם בורג קטן מה אכפת להם מימני. אז אם אין חוק שיכול לעזור ומדינה שתראה את הסבל שלי עם הביורוקרטיה של מוסדות המדינה אל תתפלאו שיקרה משהו ואז תתעוררו. </t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/share/p/SwjRBjWqRy6U66AD/</t>
-  </si>
-  <si>
     <t>לאילו מקומות זה לקח אתכם?
 לו יכולתם האם הייתם משנים?
 האם אתם מאושרים?</t>
@@ -1903,59 +1810,6 @@
     <t>https://www.facebook.com/share/p/e4tGQZi7YSM1iixp/</t>
   </si>
   <si>
-    <t xml:space="preserve">היי, אני חדשה כאן. רקע קצר: טיל נפל ישירות בבית הוריי בו גרתי בשנתיים האחרונות. הטיל נפל קרוב אליי ולאחייניתי שבפגה רסיסים רבים. אני נאבקת זמן רב בשאלת הקיום, איך זה שהיא נפגעה פיזית ואני לא. איך זה שאני חיה. מהמשטרה לא הצלחתי לקבל הסברים או דוח איך קרה שטיל אחד חירב בית שלם של שתי קומות וגרם לשריפה שכילתה הכול. אני מסיימת בימים אלה תהליך שיקומי נפשי במרכז לטיפול יום לאחר 5 חודשים, לא עם אנשים שעברו מה שאני עברתי. 
-אובחנתי גם בפיברומיאלגיה ע"י ראומטולוג שביטוח לאומי דחו כרגע. אני חווה עליות ונפילות קיצוניות ונופלת לדכאונות שמאכזבים אותי. הייתי בעמדות ניהול, יצרתי, יזמתי, היו לי חיי חברה. כיום לרוב אני לא מצליחה עדיין לצאת מהבית, נרתעת מכל רעש, חוטפת התקפי חרדה ובכי וזה גורר כאבים משתנים בכל הגוף. בזמן מסוים היתה הטבה אך שוב חזרתי אחורה. בשבוע הבא אהיה בלי מסגרת יומיומית והלחץ לחזור לחיים ולמעגל העבודה גומר אותי. אני לא מוצאת הנאה ועניין בשום דבר ומרגישה שכל חלומותיי נגוזו, נלקחו ממני. אני לא מסוגלת להיות בעשייה כפי שהייתי, עזבתי את לימודי התואר השני שהיה הכרחי לתחום המקצועי שלי. איני יודעת מה לעשות. לאן עוד לפנות. בנט"ל השיבו לי שקבוצת תמיכה תיפתח רק בספטמבר אוקטובר. וזה מה שהיה חסר לי  בטיפול יום עד כה, בין היתר, לשבת עם אנשים שחוו אירוע של חיים ומוות.
-על העו"ד שלי אני כבר לא סומכת.
-אם יש כאן מישהו שיוכל לחלוק מנסיונו או להפנות לגורם מלווה מקצועי אני מאוד אעריך זאת.
-תודה מראש
-</t>
-  </si>
-  <si>
-    <t>נעמי40</t>
-  </si>
-  <si>
-    <t>https://www.camoni.co.il/411804/578171</t>
-  </si>
-  <si>
-    <t>#14198 השתחררתי מהצבא לפני כמה שנים, אבל אני לא מרגיש משוחרר. בכל בוקר כשאני מתלבש, אני למעשה מרגיש שאני מתחפש לאזרח. כשאני מגיע ללימודים אני עושה חיקוי של עצמי מלפני תקופת הצבא ומנסה לחיות חיים רגילים. כשנגשתי עם זה לפסיכולוג ולאחר מכן לפסיכאטר, הדבר הראשון ששאלו זה על אם השתתפות באירועי לחימה ושהתשובה שלי הייתה חיובית. אומנם היו אירועים כביכול "קשים", אבל בראייה לאחור אני רואה אותם כמכוננים (במובן הטוב של המילה). בעיקר אני מתגעגע להווי ,לתחושת הרעות , ללישון עם תחושת סיפוק והציפייה לאירוע הבא שיכול להתרחש בכל רגע. הצבא היה מרכיב גדול באישיות שלי, ועכשיו הוא איננו.
-חשבתי שאשתחרר, אטוס לטייל בחו"ל, אחזור לארץ ואני כבר אמצא תחליף, שאצליח להשתלב בחיים "הרגילים", או שזה יעבור, אבל לא.
-אני לא מספר על זה לאף אחד, אני אפילו לא אומר איפה שרתי או מה עשיתי בצבא, אלא אם כן נדחקתי לפינה וגם אז לא נכנס לפרטים, רק כדי לא להיות ה"הורס שמחות" או הסאחי/התותח שמדכא. לבינתיים אני יושב בבית וצופה בסרטונים ותמונות מתקופת השירות ובוכה עד שלוש בלילה, מוצף ברגשות.  אם לא הייתי חפ"ש ללא אופק תעסוקתי בצבא, מחר בבוקר כבר הייתי פורש מהלימודים ומנסה לחזור לשירות. כיום הדבר היחידי שמקנה לי אושר הוא הציפייה למילואים הבאים.</t>
-  </si>
-  <si>
-    <t>Technion Confessions14198</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TechnionConfessions/posts/426543248020207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#14054 אמ:לק
-הייתי שפיץ, זה אפשרי.
-נכון הילד שיש לו תמיד ציונים הכי טובים בכיתה בלי להתאמץ בכלל?
-אז הייתי כזה.
-באתי מבית לא הכי יציב ככה שכל ההצלחה הזאת גרמה לכולם להיות עוד יותר גאים בי.
-אפילו איבחנו אותי כ"מחונן".
-הרגשתי באסה עם זה, ידעתי שיש חבר'ה מסביבי שקורעים את התחת בשביל לקבל כאלה ציונים.
-אז התחלתי לטעות במבחנים בכוונה ולבקש מהחברים מסביבי שיסבירו לי דברים שהבנתי כבר..
-(כבר תבינו למה ההקדמה).
-היום, בטכניון, נכשל כמעט בכל דבר שאני עושה.
-כולם חושבים שאני איזה באג במערכת שקיבלו אותי לכאן בכלל.
-נמאס לי מהמבטים המרחמים של החבר'ה ששמעו שאני שוב חוזר על קורסים, הרגשתי שנדפק לי המוח, שקלתי לעזוב את הטכניון.
-אבל !
-הכרחתי את עצמי ללכת לטיפול פסיכולוגי, לדבר יותר משתי מילים על החיים שלי ועל צה"ל בפעם הראשונה בחיים.
-ולעשות כל מה שצריך, לפי הספר, בשביל לצאת מזה.
-מרגיש שבאמת יש לי סיכוי להתאפס על עצמי.
-אני כותב כי אני בטוח שיש עוד אנשים כמוני שמסתובבים עם שיט כזה או אחר ומתביישים בזה או לא מאמינים שאפשר לעשות עם זה משהו כמו שאני חשבתי.
-אז תדעו, גם אם לא בשביל הטכניון והציונים, בשביל עצמכם.
-אפשר להתמודד עם זה 🙂
-</t>
-  </si>
-  <si>
-    <t>Technion Confessions14054</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/TechnionConfessions/posts/419187935422405</t>
-  </si>
-  <si>
     <t>הייתי בכל מיני קבוצות..עד היום..ואף אחת מהן לא מדברת על איך להרים את עצמך...
 ופה נראה לי שזה המקום..
 מחושך לאור..
@@ -1993,41 +1847,6 @@
     <t>https://www.facebook.com/TechnionConfessions/posts/146745989333269</t>
   </si>
   <si>
-    <t>אני אשם במוות של ארבעה חיילים ובפציעתם של עוד תריסר.
-אני אשם כי אחרי שנפלה הפצצה הראשונה קפאתי במקום ולא זזתי.
-אם רק הייתי צועק להם לתפוס מחסה אם רק הייתי צועק להם ללבוש אפודי מגן או להישכב על הקרקע הכל היה נראה אחרת.
-ואז נשמעה השריקה הנוראית ואחריה פיצוץ והפצצה השנייה הקטלנית נפלה עלינו.
-את האשמה הזאת אני אקח איתי עד לקבר.
-וכל לילה לפני שאני הולך לישון אני מבקש מאלוהים רק דבר אחד 
-שלא יעיר אותי , שייקח אותי אליו.
-ובלילה שאני נרדם המקרן שקופיות מתחיל להריץ תמונות .
-תמונות של ילדים ( חיילים ) פצועים תמונות של חיילים מפוחדים תמונות זכרון מהאירוע .
-והתמונות רצות בראש ואי אפשר להפסיק את המקרן , אין כבל חשמל שמוצאים אותו מהשקע והמקרן מפסיק.
-ובאמצע הלילה אני מתעורר וכל המכנסיים שלי ספוגים בשתן ואני קם בשקט הולך להתקלח ומכניס את הבגדים למכונת כביסה כדי שאף אחד לא יידע .
-גבר בן חמישים משתין במיטה כמו תינוק.
-ואז הבוקר מתחיל ותמונה אחת מתוך כל התמונות שנצרבו בזיכרון נכנסת לי לראש ולא יוצאת ממנו ואני מנסה להסיח את הדעת ולחשוב על דברים אחרים ושום דבר לא עוזר.
-ניסיתי הכל .
-אושפזתי במחלקה פסיכיאטרית עברתי למעלה מחמישה מטפלים שונים ( פסיכולוגים ) אני צורך כדורים באופן קבוע צרכתי גראס  עד שהתמכרתי והתחלתי לסכן את עצמי ואת הסביבה ( אני נוהג כל יום לתל השומר וחזרה הביתה )
-והדיכאון לא עוזב אותי ורגשי האשמה לא מרפים ממני.
-יש לי אישה מדהימה ותומכת ושלושה ילדים נהדרים בבית .
-אבל במקום שאני אטפל בהם וישמע אותם ויהיה קשוב לצרכים שלהם 
-הם אלו שמטפלים בי ולא עוזבים אותי לרגע.
-וזה קשה לי להיות נתמך ונצרך.
-אני שניהלתי שלוש חברות מצליחות שהיו בבעלותי ,אני שהעסקתי ופרנסתי עשרות משפחות מרגיש מושפל לבקש היום עזרה.
-ולמזלי יש לי חברים טובים שלא עוזבים אותי לרגע 
-חברים שמתקשרים כל הזמן לשאול לשלומי חברים שמלווים אותי  ומזמינים אותי אליהם הביתה כדי שאני לא אהיה לבד.
-חברים שהולכים איתי ביחד כבר 25 שנה במילואים.
-ובמלחמה הבאה אני הראשון שהתייצב לימינם 
-אני אבוא ואשמור על הילדים ( חיילים ) שהם בגיל של הבנים שלי.
-ובמלחמה הבאה אני אדע מה לעשות ואדע איך לפעול כדי להגן עליהם.</t>
-  </si>
-  <si>
-    <t>UnKnown</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/937402916425411/permalink/1055506381281730/</t>
-  </si>
-  <si>
     <t>#34316 אני עברתי חוויה נוראית במלחמת לבנון מנסה כל יום לשקם את עצמי לצאת מהחדר ההוא שתוף דם חברי מהסירחון של אבק השריפה מעורב בריח בשר חי של חברי לצוות שנותן את נשמתו בעודו בזרעותיי אני מתעורר לא פעם רטוב מזיעה או שתן על עצמי , כן כי נקלעתי לסיטואציה כזו כי הקדשתי את נעורי לשמירה על המולדת וחיי העם הזה , ששפט אותי ברגע של אי מחשבה רגע שהפוסט מתגבר והבת זוג צועקת עלי ודוחפת אותי ואז בטעות נפלט לי סטירה מאינסטינקט לא בכוונה ולא בשליטה אז כן אני מטופל וחווה יום יום על בשרי ועורי את המטען הזה ואני לא מושלם אבל אז לראות כמה אנשים נגדי וכמה נועדתי לחיות לבד כי לא מגיע לי זוגיות כי אני רוצח ואלים ומסוכן וצריך להתלונן עלי כן כי אני אשם שחוויתי את החרא הזא באוטו לילה ארור בבית ההוא בכפר ההוא , לפעמים אני חושב למה לא סיימתי שם , אבל אז אני מסתכל ואומר אני חזק מזה יש לי עוד חיים לפני אבל שברתם אותי פה שוב 
 יקירתי טעיתי רק את תדעי שלא היתה כוונה רעה בסטירה הזו . זהו פרקתי ונפרקתי</t>
   </si>
@@ -2046,33 +1865,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/marriedconfessions/posts/357547238436852</t>
-  </si>
-  <si>
-    <t>#1417 נשוי באושר כבר 3 שנים עם אישה מפלאה.
-יש ילד קצת פחות משנה.
-מסיבה שלא ברורה לי, אני מרגיש ״חור״ בנישואין, כאילו משהו בזוגיות משעמם אותי ואיפה שהוא גורם לי לרצות לבקר במקומות אחרים.
-אישתי לא השתנתה פיזית או נפשית אחרי הלידה, נשארה אותו בן אדם זהב שהכרתי לפני החתונה (כבר 9 שנים יחד).
-ניסנו טיפול זוגי, סקסולוגים (אולי להוסיף משחקים חדשים או השד יודע מה)..
-יתרון ענק בנינו שאנחנו מדברים על הכל, לא משנה אם זה כואב, אמיתי, מתסכל, משמח ובקיצור הבנתם את המסר..
-אישתי אומרתש אנחנו לא יוצאים מספיק יחד, אני מסכים איתה, זה לא שלפני החתונה היינו זוג שיוצא כל שני וחמישי, אולי אחת לחודשיים, בעיקר שגרה של עבודה ותחזוקת הבית, פעם ב איזה סרט או משהו נחמד..
-המצב הכלכלי לצערי לא מאפשר לי לצאת איתה יותר מידי ולבזבז כסף, אנחנו ממש חיים על מסגרת, במיוחד מאז שהילד הגיע, אחרי הכל ילד זה לא שקל שתיים בחודש..
-אני הפחתתי משמעותית בהוצאות לכיף שלי, למשל סיגריות התחלתי לגלגל, קנאביס (שזה חלק מטיפול פוסט טראומה מהצבא) הפחתתי משמעותית לפעם-פעמיים בשבוע וזה נטו בשביל שהעוני לא יהרוס את האווירה בבית ושלא יחסר מאישתי ובני דבר או חצי דבר.
-אישתי כמובן באותו מצב של חיסכון אם כי היא לא מעשנת..
-יציאות לטבע זה פחות אישתי, לי אין בעיה ואני אפילו מעדיף את זה מקניון או שטויות כאלה..
-תביאו הצעות איך לשפר את הזוגיות גם שהמצב הכלכלי שניה לפני שמעיפים אותנו מהשכירות...
-לא רוצה לבדוק אופציות של גירושין, היה בעבר תקופה של שנה שחשבתי על זה וכמובן הכל פתוח מול אישתי.
-קיבלתי החלטה שאישתי ובני זה הדבר הכי חשוב לי בחיים ולא אוותר עליהם ויהי מה.
-אני עובד המון, גם כשכיר וגם כעצמאי, איפה שהוא זה שוחק אותי וגוזל ממני זמן שכל כך יקר לי להיות עם הילד כי אחרי 20 הוא כבר נרדם..
-עשיתי לעצמי חוק שאני מסיים לעבוד מגיע בסביבות 18 לבית ועד 20 אני רק בבית ולא אכפת לי מעבודה או חברים, רק בשביל להספיק את הבן שלי, כל היום הוא במעון ואני בעבודה, לא רוצה לפספס תקופה שאי אפשר להחזיר..
-בקיצור, אני על סף ייאוש, לא יודע איך להתקדם, אפילו חופשה של בופ״ש בצימר אני לא יכול להרשות לעצמי... מרגיש שאני חייב להיום עם האישה בסופש לבד בשביל הזוגיות...
-מפחד מאד מהעוני שעוד יכול להגיע, אחרי הכל שנכנס העוני נכנסות הצרות לבית..
-פרקתי בתקווה שאתמודד טוב יותר.</t>
-  </si>
-  <si>
-    <t>וידויים של נשואים1417</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/marriedconfessions/posts/318735388984704</t>
   </si>
   <si>
     <t>היי, אמא לשתי בנות 3 ו5. בעקבות המצב ברחנו לחו"ל אחרי שבוע שבו הקאתי כל הזמן, והייתי בכוננות כל רגע למות, אם זה מטיל או מחבל (קרובה מאוד לקו התפר). אנחנו חוזרים מחרתיים, ההקאות פסקו אבל התחושה שהמוות מחכה לנו לא מרפה. בין אם זה השנה, עוד חמש שנים או עוד עשר. התחושה היא שלישראל אין סיכוי גאוגרפית, דמוגרפית ותודעתית, אנחנו פירור בין שתי יבשות מוסלמיות שמתות להיפטר מאיתנו. אני מרגישה שלחזור זה לגזור מוות על בנותיי בשנים הקרובות. רציתי לדעת אם עוד מישהו מרגיש שלישראל אין סיכוי לשרוד, ואיך מצליחים לחיות עם הידיעה שהמוות מחכה לך בפינה 💔🇮🇱</t>
@@ -2639,14 +2431,6 @@
     <t>https://www.facebook.com/groups/7591922090833053/permalink/24407371005528231/</t>
   </si>
   <si>
-    <t>הייתי מעוניין לפרסם פוסט אנונימי על הבעיה שיש לי.
-מקווה שלא אעצבן אף אחד.. זה יושב בי ועלי יום ולילה .
-אני כותב פוסט אנונימי כי קשה לי להתמודד עם תגובות אישיות מכל שהן כרגע.אני מרגיש שאני מאבד את זה לגמרי.הילדים ואשתי לא מבינים ! ואף מאשימים אותי,בהצקות. אני על 4 מ"ג קלונקס ביום.בנוסףלכדורים שלי. אני הלום קרב כ30 שנה, ומתמודד יום יום,גם בשיגרה .נפשית פיזית ופרנסה כדי שהכל יהיה בסדר.וכולם יקבלו מה שהם צריכים שלא ירגישו שמשהו חסר בבית. וינסו לחפש במקום אחר. אני משתדל להראות  שיגרה לילדים הגדולים .וגם לצעירים, 15 ו11.אני מפוצץ חרדות! לא עלי אלא על ילדיי. יש לי בן חייל מדריך אימון גופני בצבא. וכל רצונו היום הוא להיות עם חבריו שנמצאים בחזית. אני לפני שנה בגיוסו,בהתייעצות אתו,החלטנו יחד שהוא לא יהיה בקרבי. והוא אכן עושה שירות משמעותי. באימון גופני של מפקדים ונגדים בבסיס במרכז הארץ.הבת שלי השתחררה לפני שנתיים. אבל היא עושה הכל כדי לעשות הפוך ממה שאני מבקש.למרות שאנישיתםתי אותה בהכל ממש הכל ממה שקרה לי.אני שיתפתי את כל הילדים האחרים במה שעברתי ככה בקטנה. ומצפה למינימום רגישות למצבי, כדי שאוכל להמשיך לתפקד. אני נתקל במשפטים:"הלוואי שהייתי שם" "הלוואי והייתי איתם".זה משגע אותי. מצד אחד אני מבין את רצונם ומצוקתם לעזור ולהיות משמעותיים...ומצד שני אם זה יקרה אני ...חיי לא יהיו חיים.אני מרגיש כאילו אני צריך אותם אתי בשביל השקט שלי. אבל אני נתקל בזה(במשפטים  האלה)בכל צעד.אני מרגיש כאילו אוטוטו הם הולכים לאבד אותי מהתקף לב, או חרדה. כי אני לא יכול עם ה"קטנות האלה" מצד אחד אני מבין אותם, כי כך אני הייתי כחייל צעיר. מצד שני המחשבה על היותם שם, מטריף אותי.המחשבה על הסיטואציה המפחידה הזו, גורם לי להיות זומבי מכדורים. קלונקס בקלוסל פרותיאזין.  אני פשוט אובד עיצות. לחמתי בשביל המדינה, וההורים שלי היו דיי אפתיים לגבי השירות שלי. מה שהיה לי נוח.ולא ישב לי על הלב. אשמח לעצות תמיכה וכל מה שעשוי להרגיע.נתתי לילדים שלי הכל עד גיל 18 ואילך. ואני מצפה לקצת חמלה.שקט זה מה שאני צריך.סליחה אם עיצבנתי מישהו</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/7591922090833053/permalink/24246337444964922/</t>
-  </si>
-  <si>
     <t xml:space="preserve">20 שנה של חורבן הבית האישי שלי.
 20 שנה מאז "חומת מגן" שאני צל של עצמי.
 פספוס איי התחושה של הפספוס של החיים.
@@ -2746,30 +2530,6 @@
     <t>https://www.facebook.com/groups/beitseferletziyur/permalink/6653676391419886/</t>
   </si>
   <si>
-    <t>החבר התל אביבי שלי העביר אצלי את הסופש. מחוץ לבועה שלו, דרומית לאשדוד אבל צפונית לאשקלון, איפה שכל החברים שלו צוחקים עליו שהוא מבלה ימים ולילות.
-בשבת בבוקר, בשעה 9:50 התעוררנו לרקע צלצול התראה לא מוכר מהטלפון. לא של שיחה, או הודעה או התראה מאפליקציה מוכרת. צלצול שלא שמעתי הרבה זמן עד שכבר בקושי זיהיתי. יירוטים לכל עבר מעזה לכיווננו, היינו מוקפים באזעקות שלא שמענו באוזניים מכיוון שהם פגעו רק מסביבנו.
-השארתי את התל אביבי המבולבל במיטה, להתעורר חלקית, ורצתי לחדר של אחותי הקטנה. "יש אזעקות מסביב. תיהי ערנית, אני מרגישה שזה יגיע גם לפה"
-חוזרת למיטה, נכנסת מתחת לשמיכה, מקווה לאובייקט
-נשמעת אזעקה רחוקה. לא משלנו. אנחנו 272, שמענו של 271, אבל לא חשבתי. קמתי מהמיטה ועשיתי מעגלים בחדר. ללכת לממד? לא ללכת לממד? זה לא אנחנו. זה עדיין לא אנחנו. לחזור לישון!
-10:01.
-אזעקה.
-אחת אמיתית, אחת שלנו. 
-התל אביבי קם מהמיטה בריצה, רגיל שיש לו דקה וחצי וגם זה פעם בעשור, ואילו אני דופקת על הדלתות של האחים. אחותי כבר בממד, ואני מנסה להעיר את אחי. פתחתי לו את הדלת ואני רואה אותו מתמהמה ועומד בחדר עם שמיכה עליו. 
-"מה אתה עושה? אני רוצה לסגור את הדלת הגדולה!" ולפתע התפכח ורץ ביחד איתי למרחב המוגן.
-"חשבתי זה צפירה של יום הזיכרון. לא חשבתי" היה הדבר הראשון שמלמל אחי.
-בומים. אזעקה נוספת תוך כדי הראשונה שכבר התחילה להתנגן. עוד בומים, כאלה שנשמעים ממש מחוץ לרחוב.
-"אני יכול להתרגל לזה, זה פשוט לא מספיק זמן" אמר התל אביבי הגיבור.
-ואני- נכנסת לפאניקה. 2014 מתפוצצת לי בפנים. אזעקות, פיצוצים, רסיסים נפלו לי בחצר. ברחתי לצפון. בת מצווה. רציתי לבכות.
-"צ'וצ'י מה קרה? חשבתי את רגילה לדברים האלה"
-אבל אף אחד לא צריך להיות רגיל לדברים האלה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Li Bi Lynch </t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/177641642326425/permalink/2175094569247779/</t>
-  </si>
-  <si>
     <t>היי לכל הפסיכולוגים בקבוצה 
 צקיכה את עזרתכם 
 אני תושבת שדרות לשעבר אם חרדות והיום מתגוררת בבאר שבע
@@ -2810,52 +2570,6 @@
   </si>
   <si>
     <t>https://www.facebook.com/groups/4513302072018029/permalink/8121995764481957/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אני הייתי חייל במג"ב איו"ש, בפלוגה אשר מבצעת מעצרים במהלך האינתיפאדה השנייה.
-אין לך רגעים שקטים.
-ככה זה, אתה תמיד יוצא החוצה, לקניות, לבילוי עם החבר'ה, וכל פעם שאתנחנו עוברים באיזו סמטה אחרי הופעה בלבונטין או ברידינג, אני מחפש צלפים. ליד רמי לוי, על הגג של החנות בגדים, מחפש צלפים. בילוי עם ההורים, ברגע שאני יוצא מהבניין לאוטו, אני הולך מכופף, רק מחפש צלפים.
-בלילות אני מחפש את זאת שאהבה נפשי, אבל כל מה שאני מוצא זאת אהבה חד פעמית, זיון מלוכלך עם בחורה. ובלילות אחרי הסקס, אתה מנסה להתכרבל איתה, להרגיש נעימות, נרדם, ואז שומע את הקרבות בחברון. ומתעורר, מגלה שכולך זיעה קרה וכתם של שתן מרוב פחד על המיטה.
-אתה מחפש מטענים. אתה מחפש בכל דלת מלכוד, אתה מחפש בכל ארון מטען, ולפעמים, אתה אפילו מסתער על בחור עם ג'קט שנראה כאילו שם מתחתיו מטען חבלה.
-אתה תמיד בודק מתחת לרכב, אין לדעת, הרי בזאבים היו שמים לנו לפעמים מטענים באיו"ש.
-כששומע ערבית אתה קופא. אתה לא רוצה להבין שזאת השפה הרשמית השנייה בישראל, כל דובר ערבית מבחינתך הופך אוטומטית למחבל, כל אישה בגלבייה שנכנסת לאוטובוס גורמת לך להיזכר בפיגוע בקו 16 בחיפה.
-כשאתה תלוי בין סטלה שמשכיחה את הכאב ללילות מלאי פחד וחלומות של תופת, אין לך באמת רצון יותר לחיות. אתה מתחיל להבין לאט לאט שאתה סובל מפוסט טראומה, ואתה יודע שאתה לא יכול להתמודד עם זה. אתה לא יכול לגרום לזה להעלם. אתה חי את הלילות בשכם לילה אחר לילה, במשך 16 שנים מזויינות אתה ממשיך להילחם באויבים, באויבים ושדים בראש ובמחשבות, צלפי רפאים מעל חנות הספורט ליד רמי לוי, בנשים שבורות שאתה גורם להן לשיברון יותר גדול, בבקבוקי וודקה ובצרחות באמצע הלילה.
-אני לא רוצה לחיות עם זה יותר.</t>
-  </si>
-  <si>
-    <t>יוגב</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/177641642326425/permalink/1405280906229153/</t>
-  </si>
-  <si>
-    <t>יום כזה שמציף את כולנו.
-כל שנה היום הזה מקבל משמעות נוספת עבורי.
-השנה במיוחד.
-מאז אותה שבת שחורה אני במילואים און אנד אוף.
-לחמתי בעזה וביום שישי האחרון ירדתי מקרב הגנה בצפון הארץ, במטולה.
-עוד לפני שנכנסנו לעזה, בהתחלה, התבשרתי על לכתו של חבר, שנרצח כשחגג את חייו במסיבת הנובה, לא הייתי בהלוויה, לא הייתי בשבעה ולא הייתי בשלושים, הייתי בעזה.
-הספקתי להיות בהכנסת ספר תורה לזכרו.
-במהלך הלחימה בעזה באחת ההיתקלויות יצא לי לטפל בדניאל בן הרוש הי''ד והייתי איתו ממש עד רגעיו האחרונים.
-שבוע שעבר במהלך התעסוקה במטולה כטב''מ נפל בגזרה שלנו בדיוק על האוהל שבו היו נחמן הרץ הי''ד ודן קמחג׳י הי''ד, כשהגעתי לשם עם התאג''ד הם כבר לא סבלו, היה להם טוב.
-התמונות של כל אחד מהם לא יוצאות לי מהראש.
-אני זוכר אותו רוקד איתי במסיבות.
-אני זוכר אותו ברגעים שנלחם על חייו.
-אני זוכר את דן בעזה עם הבנדנה על הראש תולה שמיכות בחלונות כדי שלא ניחשף, בונה עמדות הסוואה ומחייך כאילו אנחנו באיזה ריטריט של שמחה.
-אני זוכר את נחמן עם האנרגיות שהוא מפיץ סביבו בכל רגע.
-אני זוכר אותו ואותו מוטלים כשהם מביטים בי מלמעלה, נשמתי לרווחה לדעת שלא כאב להם.
-אני זוכר את אלי קיי, חבר נפש שנרצח בפיגוע בעיר העתיקה בירושלים לפני כמה שנים.
-אני זוכר איך התפרקתי בהלוויה שלו, פעם ראשונה שחוויתי אובדן מקרוב.
-אני זוכר ולעולם אני אזכור.
-פיתחתי אדישות אבל עכשיו אני קצת חנוק.
-היום הזה כואב.
- תשמרו עלינו מלמעלה ובבקשה שאתם האחרונים.</t>
-  </si>
-  <si>
-    <t>אברהם בלומנטל</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/share/p/d7QfJHA5NFjrroLC/</t>
   </si>
   <si>
     <t>על הבגידה בפלאנגות הנוצריות בדרום לבנון ..אנחנו משלמים היום ביוקר .
@@ -2926,23 +2640,6 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/ani_bm/comments/18alw1b/comment/kbz40rn/?utm_source=share&amp;utm_medium=web3x&amp;utm_name=web3xcss&amp;utm_term=1&amp;utm_content=share_button</t>
-  </si>
-  <si>
-    <t>במהלך מלחמת לבנון השניה עבדתי במוסך הרכבת בחיפה
-ביום ראשון באנו לעבודה כרגיל. כי אף אחד לא הורה אחרת, הגענו בשש וחצי בבוקר, שובצנו למשימות וכל אחד ניגש למקומו. האווירה הייתה משונה. זו עדיין לא הייתה אווירה של מלחמה, אבל הייתה תחושה של אי ודאות. בשמונה ורבע הלכנו לאכול ארוחת בוקר ובשמונה וחצי חזרנו לעמדות העבודה. בתשע וחמישה נשמעו שלושה פיצוצים אדירים ואחד המנהלים יצא בריצה וצרח – אני שומע את הצרחה שלו עד היום- ‘רוצו למקלטים’. התחלתי לרוץ ואז זה תפס אותי פתאום הייתי על הרצפה בתוך שלולית של דם ומסביב היה שקט. לא איבדתי את ההכרה. ואז חבר שעבד איתי הגיע אלי, הוא קרא לשני חברים והם הצילו את חיי. כדורית שנכנסה לי לרגל קרעה לי את העורק הראשי ואחד מהחברים שהגיע קרע לי את המכנס ודחף לי סמרטוט לתוך הפצע.
-הייתי בהכרה וכל הזמן ניסיתי להתקשר לאשתי. כל הקווים קרסו אבל אני המשכתי לנסות לחייג אליה גם כשלקחו אותי לאמבולנס. הדבר האחרון שאני זוכר זה שאני נותן לשוטרת שהייתה לידי את מספר תעודת הזהות שלי ואת מספר הטלפון של אשתי, ואורות של פרוז’קטורים מעל הראש שלי. התעוררתי אחרי 18 שעות….
-נשארתי מאושפז ברמב”ם חודש ימים עם רגל שנפגעה קשה, מרפק שרוסק ופגיעות נוספות. מבית החולים עברתי לשיקום של חצי שנה
-אמרתי לעצמי – ‘מורדי,  לך זה לא יקרה’, ובאותו רגע הסכמתי לכל טיפול שהציעו לי. לא בחלתי בשום דבר. ואני לא מצטער על כך.
-יש לי זיכרונות והם לא יעזבו ולא ייעלמו. היו כאן חברים שנעלמו בשנייה אחת. יש לי פלטינה ברגל וצינורית פלסטיק שמחברת את העורק הראשי, לאורך השנים היו ויהיו עוד בעיות רפואיות כאלה ואחרות, אני לוקח כדורים ותרופות ואצטרך לקחת אותם כל חיי; בעבר עסקתי הרבה בספורט והיום אני אפילו לא יכול לרכוב על אופניים. ברור שיש תוצאות והשלכות לא נעימות. אבל אנחנו חיים. יש לנו משפחות. יש ילדים שגדלים ואנחנו זוכים לראות אותם ולחבק אותם.</t>
-  </si>
-  <si>
-    <t>מורדי</t>
-  </si>
-  <si>
-    <t>נט"ל</t>
-  </si>
-  <si>
-    <t>https://www.natal.org.il/knowledge_item/%d7%9e%d7%95%d7%a8%d7%93%d7%99-%d7%a2%d7%93%d7%95%d7%aa-%d7%9e%d7%94%d7%a4%d7%92%d7%99%d7%a2%d7%94-%d7%91%d7%9e%d7%95%d7%a1%d7%9a-%d7%94%d7%a8%d7%9b%d7%91%d7%aa-%d7%91%d7%97%d7%99%d7%a4%d7%94/</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3309,12 +3006,153 @@
   <si>
     <t>המימדים ש האסון הזה זה פשוט לא נתפס, הם עשו לנו פוגרום. פוגרום של ילדים בני עשר. פוגרום פשוט.</t>
   </si>
+  <si>
+    <t>אני הייתי חייל מורעל מלחמה. ראיתי את מה שקרה עכשיו ב7.10 בשבת בבוקר בשעה 6 בקיבוצים שאיבדו את המשפחות שלהם או שכנים שגרו לידם. וגם מה שקרה במסיבה שכמעט הרגו את כל הרוקדים הזו שהייתה באזור העוטף . והמראות של מה שיראו לאחרונה בכל מקום אפשרי במדיה לא עוזבים אותי ומרגיש לי שאני חייב לעזור ולתרום מעצמי למצב וגם בעיקר למי שהמשפחות מחפשות את אחים או הסבתות שנעלמו . אני בכלל יכול לעזור ?או שעדיף שאני ישב בבית וישכח מכל האירוע של 7.10?</t>
+  </si>
+  <si>
+    <t>יהלי </t>
+  </si>
+  <si>
+    <t>AskPeople</t>
+  </si>
+  <si>
+    <t>www.askp.co.il</t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/373689</t>
+  </si>
+  <si>
+    <t>היי..אני בת 22 חובשת במגן דוד אדום.
+ב7.10 פרצה מלחמה..ומאז הלב שלי מרוסק.
+ב15.10 הלכתי ללוות את את הנרצחים בדרכו האחרונה.
+אני החובשת שהייתה עם המשפחה בכל זמן הנסיעה ברכב של קדישא
+האמא צעקה לבן שלה בפעם האחרונה ואז שאר הילדים שזעקו לאח שלהם
+שבבקשה שיתעורר.
+אני מרגישה אשמה!!
+שלא באתי ישר לעזור.
+אני אוכלת את עצמי מבפנים..
+מה לעשוח..בבקשה תעזורו לי
+אני קלא רואה חשק לחיות אחרח הכשל הזה</t>
+  </si>
+  <si>
+    <t>רוני </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/373770</t>
+  </si>
+  <si>
+    <t>מה נשמע הייתי לוחם ביחידה ובסוף דצמבר האחרון נפצעתי בעזה פציעה לא רצינית ואיבדתי כמה חברים באותה תקופה עברתי משבר נפשי הייתי צריך למות כמה פעמים וניצלתי לאחר מכן שיצאנו משם חוויתי משבר נפשי לא יכלתי יותר ראיתי קבן שהוריד אותי לפרופיל 72 יצאתי לעריקות משם לכלא ראיתי פסיכאטרים וקבנים שאמרו על  דכאון חרדות עקב מצב מסכן חיים וכו׳ שהמליצו לי על כדורים והביאו לי אותם
+יצאתי מהכלא עם פרופיל 45 מהפסיכיאטר
+ומוועדת אי התאמה קיבלתי קיצור שירות לשנה וחצי ויומיות ליד הבית דיברתי עם קצין מיון לבסוף הביא לי תפקיד של יומיות ואני לא יכול לעמוד בזה יותר ואני במין מחסום מה לעשות אני עובר תקופה לא טובה נפשית
+נשאר לי כמה חודשים לשירות ורציתי לדעת עם אני איכשהו יחזור ללוחמה ויוותר על הקהס ועל הסעיפים של הנפשי
+האם הקצרש לשנה וחצי ישאר וזה אומר שאני יחזור רק לכמה חודשים ללחימה
+או שעדיף לי כבר לסיים את זה עם הקבנית ולהוציא את הפטור הייתי יכול להוציא אותו אבל נלחמו על להשאיר אותי במערכת</t>
+  </si>
+  <si>
+    <t>בדוי </t>
+  </si>
+  <si>
+    <t>https://www.askp.co.il/question/382552</t>
+  </si>
+  <si>
+    <t>בתור מתנדב זק"א שהיה בנובה..
+שולח לכם חיבוקים עצומים ויותר מאשמח לקבל בחזרה כי אני צריך את זה💔
+אתם גיבורים.ות, יקיריכם.ן גיבורים.ות!
+מלאכי הנובה נחקקו אצלי בראש, יקיריכם חייכו אלינו!!
+אנחנו, אני! הקרבתי את נפשי וכמעט את חיי אינספור פעמים, ההקרבה הזאת היא המינימום שיכולתי לעשות למען יקיריכם, אני מצטער שלא עשיתי יותר💔😢</t>
+  </si>
+  <si>
+    <t>Anonymous participant</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/QM6tMSSujXhZgY4y/</t>
+  </si>
+  <si>
+    <t>אני ברחתי דרך השדות באותו היום
+מאז כל פעם שאני נרדם זה בא אלי בחלום , בחלום אני רץ ולא מצליח לברוח 
+נופל ואז מחבל חמאס יורה בי והורג אותי , כל פעם אני מתעורר מיזה מזיע. באמת לא יודע מה לעשות 🙁</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/MyGpdkBFwJyH5cR5/</t>
+  </si>
+  <si>
+    <t>כשהיית קטנה ולא מצאת משהו,  אמרתי לך שהוא הלך לאיבוד והיית שואלת אותי , 
+אמא, איפה זה איבוד?
+כבר 300 ימים שאני מנסה להבין איפה זה איבוד 
+ואיך זה שאיבדתי אותך.
+אמא לא אמורה לאבד ילדה
+אמא לא אמורה לשכוח איך נשמע הצחוק של הבת שלה.
+אבל כבר 300 ימים שהריח שלך הולך ונמוג עד שאני כבר כמעט לא זוכרת אותו , אז קניתי את קרם הגוף שלך, את הבושם שלך את כל תכשירי הטיפוח שלך כדי להמשיך ולהריח אותך, להריח כמוך.
+כבר 300 ימים שהקול שלך הלך ונדם עד שאני לא מצליחה לעצום עינים ולזכור אותו, אז אני שומעת הקלטות , רואה סרטונים ושומעת שוב ושוב ושוב .
+כבר 300 ימים שאני אומרת את המילים ״איבדתי את הבת שלי״ אבל אם איבדתי אותך אני אמורה לחפש ולמצוא, ככה זה במשחק המחבואים, לא?
+איבדתי את הבת שלי - משפט שלא מצליח לגעת בקצה קצהו של מה שבאמת קרה.
+אני לא איבדתי אותך
+ואת לא הלכת לאיבוד 
+את הלכת לרקוד 
+ואני הלכתי לישון
+ואת נרצחת.
+300 ימים ואני עדיין מנסה להבין.
+עדיין לא מצליחה.
+300 ימים 
+ו 300 מליון דמעות שלא מפסיקות לרדת .</t>
+  </si>
+  <si>
+    <t>Efi Azoulay Regev</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/share/p/4ML3UNqUYNiiTGqL/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אחד הדברים בקיץ, שלא ידעתי אם לצחוק או לבכות, ניסיתי לקחת את זה בהומור. שהיה רגעים שאני פשוט יושב על הערסל בבית שלי, ומה שקורה זה שאני מסתכל באמת לכיוון הזה, לכיוון של עזה, וזה פשוט מופע אור קולי. </t>
+  </si>
+  <si>
+    <t>גפן שדה</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Q585hM2jAkU</t>
+  </si>
+  <si>
+    <t>אז היו שתי נקודות משבר, אחד זה המוות של X1, שהוא גר, אני חושב, באחד הקיבוצים שם באיזור אשקלון, שהוא נהרג מפצמ"ר. ואני הכרתי אותו, הוא גר פה במושם לידנו.</t>
+  </si>
+  <si>
+    <t>וזה כבר בעצם, לא אנשים שאתה אומר, טוב, הוא שייך לפה, זה בן אדם פה, אולי הוא ישראלי, אולי הוא לא ישראלי, זה בן אדם שאתה מכיר.</t>
+  </si>
+  <si>
+    <t>אני פשוט הייתי אצל דודה שלי בגבעתיים, וראיתי אתזה בטלוויזיה. ואני פשוט נכנסתי לשוק כזה, ופשוט ברחתי מהדירה שלה. ובמשך שלש שעות הסתובבתי ועברתי מספספל לספסל ובכיתי את נשמתי.</t>
+  </si>
+  <si>
+    <t>מה שקורה לי עד היום, בעצם נורא קשה לי כל פעם שאני שומע איזה מסוק עובר מעל הבית שלי. ישר מתחילים לי פלאשבקים ומתחיל להיות לי רע.</t>
+  </si>
+  <si>
+    <t>לפעמים מספיק שאני שומע מסוק אחד, ואני מעביר לילות שלימים בלי לישון בגלל זה</t>
+  </si>
+  <si>
+    <t>אני נזכר בתחושה נוראית, של קודם כל, העולם קורס. וכאילו, אני הבא.</t>
+  </si>
+  <si>
+    <t>לא מספיק את השלוש שנים הכי טובות כל אחד נותן, אתם עכשיו לוקחים לי גם את השנים שאחרי?</t>
+  </si>
+  <si>
+    <t>אריאל בן מאיר</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aoojy0StiHE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני כבר שלש שנים לא הצלחתי להכניס יותר משלש אלף שקל בחודש. ואני בן אדם עם יכולו, אתה קצין, מקפצה לאזרחות... </t>
+  </si>
+  <si>
+    <t>ליאור רומי</t>
+  </si>
+  <si>
+    <t>אני מוצא את עצמי על בסיס יומי מזיע. כשאני בטיפול, זה הכי בא לידי ביטוי.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3350,6 +3188,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3391,7 +3237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3406,6 +3252,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3712,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="L252" sqref="L252"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3757,10 +3609,10 @@
       </c>
       <c r="M1" s="1"/>
       <c r="P1" s="4" t="s">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>668</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -3939,7 +3791,7 @@
         <v>150</v>
       </c>
       <c r="T5" t="s">
-        <v>669</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -4152,19 +4004,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -4173,7 +4022,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
@@ -4198,16 +4047,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -4225,7 +4077,7 @@
         <v>20</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>123</v>
@@ -4234,7 +4086,7 @@
         <v>31</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
       <c r="U12">
         <v>242</v>
@@ -4257,7 +4109,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -4275,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13">
         <v>768</v>
@@ -4284,22 +4136,22 @@
         <v>174</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>667</v>
+        <v>621</v>
       </c>
       <c r="U13">
         <v>10</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>670</v>
+        <v>624</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>671</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -4310,16 +4162,13 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
@@ -4337,7 +4186,7 @@
         <v>20</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P14">
         <v>1153</v>
@@ -4367,22 +4216,22 @@
         <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
@@ -4391,7 +4240,7 @@
         <v>20</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <v>216</v>
@@ -4400,7 +4249,7 @@
         <v>54</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>672</v>
+        <v>626</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>12</v>
@@ -4411,25 +4260,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>61</v>
-      </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
@@ -4438,7 +4287,7 @@
         <v>20</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P16">
         <v>113</v>
@@ -4447,7 +4296,7 @@
         <v>28</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>659</v>
+        <v>613</v>
       </c>
       <c r="T16">
         <v>99937</v>
@@ -4461,25 +4310,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
+      <c r="D17">
+        <v>42</v>
+      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
@@ -4497,7 +4349,7 @@
         <v>48</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>660</v>
+        <v>614</v>
       </c>
       <c r="T17">
         <v>412.962809917355</v>
@@ -4511,28 +4363,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
@@ -4550,7 +4399,7 @@
         <v>42</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
       <c r="T18">
         <v>284.5</v>
@@ -4564,25 +4413,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
         <v>70</v>
       </c>
-      <c r="G19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s">
-        <v>72</v>
-      </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
@@ -4591,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>754</v>
@@ -4600,7 +4452,7 @@
         <v>159</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="T19">
         <v>126344.260021947</v>
@@ -4614,28 +4466,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
@@ -4644,7 +4493,7 @@
         <v>20</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>611</v>
@@ -4653,7 +4502,7 @@
         <v>132</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="T20">
         <v>355.44937757991198</v>
@@ -4667,25 +4516,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
@@ -4703,7 +4552,7 @@
         <v>137</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>664</v>
+        <v>618</v>
       </c>
       <c r="T21">
         <v>1662</v>
@@ -4717,7 +4566,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -4726,16 +4575,16 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -4744,7 +4593,7 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>223</v>
@@ -4753,7 +4602,7 @@
         <v>48</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="T22">
         <v>42</v>
@@ -4767,7 +4616,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -4776,16 +4625,16 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
@@ -4794,7 +4643,7 @@
         <v>20</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>510</v>
@@ -4809,25 +4658,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
@@ -4851,25 +4700,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
@@ -4878,7 +4727,7 @@
         <v>20</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>448</v>
@@ -4892,25 +4741,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
@@ -4919,7 +4768,7 @@
         <v>20</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P26">
         <v>373</v>
@@ -4933,7 +4782,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -4942,16 +4791,16 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
@@ -4974,25 +4823,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
@@ -5015,7 +4864,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -5024,16 +4873,16 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
@@ -5056,7 +4905,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -5065,16 +4914,16 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
@@ -5097,25 +4946,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -5124,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31">
         <v>437</v>
@@ -5138,7 +4987,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -5147,16 +4996,16 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
@@ -5179,7 +5028,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -5188,16 +5037,16 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
@@ -5220,25 +5069,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
@@ -5261,25 +5110,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
@@ -5288,7 +5137,7 @@
         <v>20</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35">
         <v>251</v>
@@ -5302,7 +5151,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -5311,16 +5160,16 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
@@ -5343,7 +5192,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -5352,16 +5201,16 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
@@ -5384,25 +5233,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
@@ -5411,7 +5260,7 @@
         <v>20</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38">
         <v>445</v>
@@ -5425,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -5434,16 +5283,16 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
@@ -5466,7 +5315,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -5475,16 +5324,16 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
@@ -5493,7 +5342,7 @@
         <v>20</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P40">
         <v>80</v>
@@ -5507,25 +5356,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
@@ -5534,7 +5383,7 @@
         <v>20</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41">
         <v>626</v>
@@ -5548,7 +5397,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -5557,16 +5406,16 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
@@ -5575,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P42">
         <v>436</v>
@@ -5589,7 +5438,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
@@ -5598,16 +5447,16 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
@@ -5630,25 +5479,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
@@ -5657,7 +5506,7 @@
         <v>20</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P44">
         <v>142</v>
@@ -5671,25 +5520,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
@@ -5698,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45">
         <v>484</v>
@@ -5712,7 +5561,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -5721,16 +5570,16 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J46" t="s">
         <v>19</v>
@@ -5739,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="L46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46">
         <v>1170</v>
@@ -5753,7 +5602,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
@@ -5762,16 +5611,16 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J47" t="s">
         <v>19</v>
@@ -5780,7 +5629,7 @@
         <v>20</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P47">
         <v>251</v>
@@ -5794,25 +5643,28 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
+      <c r="D48">
+        <v>43</v>
+      </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
@@ -5835,7 +5687,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -5844,16 +5696,16 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
@@ -5862,7 +5714,7 @@
         <v>20</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P49">
         <v>260</v>
@@ -5876,7 +5728,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -5885,16 +5737,16 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
@@ -5917,7 +5769,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -5926,16 +5778,16 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
@@ -5958,7 +5810,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -5967,16 +5819,16 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
@@ -5999,28 +5851,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
-      <c r="D53">
-        <v>43</v>
-      </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
@@ -6029,7 +5878,7 @@
         <v>20</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P53">
         <v>497</v>
@@ -6043,25 +5892,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G54" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="I54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
         <v>19</v>
@@ -6070,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P54">
         <v>484</v>
@@ -6084,25 +5933,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
         <v>179</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>180</v>
       </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" t="s">
-        <v>72</v>
-      </c>
       <c r="I55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
         <v>19</v>
@@ -6125,25 +5974,25 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E56">
         <v>2</v>
       </c>
       <c r="F56" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="I56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
@@ -6166,22 +6015,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G57" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="I57" t="s">
         <v>187</v>
@@ -6210,22 +6059,22 @@
         <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="F58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G58" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" t="s">
+        <v>180</v>
+      </c>
+      <c r="I58" t="s">
         <v>189</v>
-      </c>
-      <c r="G58" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I58" t="s">
-        <v>190</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
@@ -6248,7 +6097,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -6257,16 +6106,16 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H59" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
@@ -6289,7 +6138,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
         <v>22</v>
@@ -6298,17 +6147,17 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" t="s">
         <v>193</v>
       </c>
-      <c r="H60" t="s">
-        <v>194</v>
-      </c>
-      <c r="I60" t="s">
-        <v>197</v>
-      </c>
       <c r="J60" t="s">
         <v>19</v>
       </c>
@@ -6316,7 +6165,7 @@
         <v>20</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P60">
         <v>340</v>
@@ -6330,7 +6179,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C61" t="s">
         <v>22</v>
@@ -6339,16 +6188,16 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G61" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H61" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J61" t="s">
         <v>19</v>
@@ -6371,7 +6220,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
@@ -6380,16 +6229,16 @@
         <v>2</v>
       </c>
       <c r="F62" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G62" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H62" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J62" t="s">
         <v>19</v>
@@ -6398,7 +6247,7 @@
         <v>20</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P62">
         <v>163</v>
@@ -6412,7 +6261,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
@@ -6421,16 +6270,16 @@
         <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H63" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J63" t="s">
         <v>19</v>
@@ -6439,7 +6288,7 @@
         <v>20</v>
       </c>
       <c r="L63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>179</v>
@@ -6453,7 +6302,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
@@ -6462,16 +6311,16 @@
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G64" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H64" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J64" t="s">
         <v>19</v>
@@ -6494,7 +6343,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
@@ -6503,16 +6352,16 @@
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G65" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H65" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I65" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J65" t="s">
         <v>19</v>
@@ -6521,7 +6370,7 @@
         <v>20</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>180</v>
@@ -6535,7 +6384,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
@@ -6544,16 +6393,16 @@
         <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H66" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J66" t="s">
         <v>19</v>
@@ -6576,7 +6425,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -6585,16 +6434,16 @@
         <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G67" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H67" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I67" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J67" t="s">
         <v>19</v>
@@ -6617,7 +6466,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -6626,16 +6475,16 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H68" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="J68" t="s">
         <v>19</v>
@@ -6658,7 +6507,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
@@ -6667,16 +6516,16 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H69" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J69" t="s">
         <v>19</v>
@@ -6699,7 +6548,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
@@ -6708,16 +6557,16 @@
         <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G70" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I70" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J70" t="s">
         <v>19</v>
@@ -6740,7 +6589,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -6749,16 +6598,16 @@
         <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G71" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H71" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J71" t="s">
         <v>19</v>
@@ -6781,7 +6630,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
         <v>22</v>
@@ -6790,16 +6639,16 @@
         <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G72" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H72" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J72" t="s">
         <v>19</v>
@@ -6822,7 +6671,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
         <v>22</v>
@@ -6831,16 +6680,16 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G73" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H73" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J73" t="s">
         <v>19</v>
@@ -6863,7 +6712,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
         <v>22</v>
@@ -6872,16 +6721,16 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H74" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J74" t="s">
         <v>19</v>
@@ -6904,7 +6753,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -6913,16 +6762,16 @@
         <v>2</v>
       </c>
       <c r="F75" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G75" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H75" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I75" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J75" t="s">
         <v>19</v>
@@ -6931,7 +6780,7 @@
         <v>20</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P75">
         <v>390</v>
@@ -6945,7 +6794,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
         <v>22</v>
@@ -6954,16 +6803,16 @@
         <v>2</v>
       </c>
       <c r="F76" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G76" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I76" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J76" t="s">
         <v>19</v>
@@ -6986,7 +6835,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
         <v>22</v>
@@ -6995,16 +6844,16 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G77" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H77" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I77" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J77" t="s">
         <v>19</v>
@@ -7027,7 +6876,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
         <v>22</v>
@@ -7036,16 +6885,16 @@
         <v>2</v>
       </c>
       <c r="F78" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G78" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H78" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J78" t="s">
         <v>19</v>
@@ -7054,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P78">
         <v>332</v>
@@ -7068,7 +6917,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
         <v>22</v>
@@ -7077,16 +6926,16 @@
         <v>2</v>
       </c>
       <c r="F79" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G79" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H79" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J79" t="s">
         <v>19</v>
@@ -7109,7 +6958,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C80" t="s">
         <v>22</v>
@@ -7118,16 +6967,16 @@
         <v>2</v>
       </c>
       <c r="F80" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G80" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H80" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I80" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J80" t="s">
         <v>19</v>
@@ -7150,7 +6999,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C81" t="s">
         <v>22</v>
@@ -7159,16 +7008,16 @@
         <v>2</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H81" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I81" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J81" t="s">
         <v>19</v>
@@ -7191,7 +7040,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -7200,16 +7049,16 @@
         <v>2</v>
       </c>
       <c r="F82" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H82" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I82" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J82" t="s">
         <v>19</v>
@@ -7218,7 +7067,7 @@
         <v>20</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P82">
         <v>144</v>
@@ -7232,7 +7081,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C83" t="s">
         <v>22</v>
@@ -7241,16 +7090,16 @@
         <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G83" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I83" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J83" t="s">
         <v>19</v>
@@ -7259,7 +7108,7 @@
         <v>20</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P83">
         <v>157</v>
@@ -7273,7 +7122,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
@@ -7282,16 +7131,16 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G84" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H84" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I84" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J84" t="s">
         <v>19</v>
@@ -7314,7 +7163,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -7323,16 +7172,16 @@
         <v>2</v>
       </c>
       <c r="F85" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G85" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H85" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J85" t="s">
         <v>19</v>
@@ -7355,7 +7204,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C86" t="s">
         <v>22</v>
@@ -7364,16 +7213,16 @@
         <v>2</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G86" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H86" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I86" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J86" t="s">
         <v>19</v>
@@ -7396,7 +7245,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
         <v>22</v>
@@ -7405,16 +7254,16 @@
         <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H87" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I87" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J87" t="s">
         <v>19</v>
@@ -7423,7 +7272,7 @@
         <v>20</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P87">
         <v>448</v>
@@ -7437,7 +7286,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
         <v>22</v>
@@ -7446,16 +7295,16 @@
         <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G88" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H88" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I88" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="J88" t="s">
         <v>19</v>
@@ -7464,7 +7313,7 @@
         <v>20</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P88">
         <v>430</v>
@@ -7478,7 +7327,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
@@ -7487,16 +7336,16 @@
         <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G89" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H89" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I89" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J89" t="s">
         <v>19</v>
@@ -7519,7 +7368,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s">
         <v>22</v>
@@ -7528,16 +7377,16 @@
         <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H90" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I90" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J90" t="s">
         <v>19</v>
@@ -7546,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P90">
         <v>173</v>
@@ -7560,7 +7409,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C91" t="s">
         <v>22</v>
@@ -7569,16 +7418,16 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H91" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I91" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="J91" t="s">
         <v>19</v>
@@ -7601,7 +7450,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C92" t="s">
         <v>22</v>
@@ -7610,16 +7459,16 @@
         <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G92" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H92" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="J92" t="s">
         <v>19</v>
@@ -7628,7 +7477,7 @@
         <v>20</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P92">
         <v>580</v>
@@ -7642,7 +7491,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
         <v>22</v>
@@ -7651,16 +7500,16 @@
         <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G93" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="J93" t="s">
         <v>19</v>
@@ -7669,7 +7518,7 @@
         <v>20</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P93">
         <v>157</v>
@@ -7683,7 +7532,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C94" t="s">
         <v>22</v>
@@ -7692,16 +7541,16 @@
         <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G94" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H94" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J94" t="s">
         <v>19</v>
@@ -7710,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P94">
         <v>112</v>
@@ -7724,7 +7573,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C95" t="s">
         <v>22</v>
@@ -7733,16 +7582,16 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G95" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H95" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
@@ -7765,7 +7614,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C96" t="s">
         <v>22</v>
@@ -7774,16 +7623,16 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G96" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H96" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
@@ -7806,7 +7655,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C97" t="s">
         <v>22</v>
@@ -7815,16 +7664,16 @@
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G97" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H97" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I97" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
@@ -7847,7 +7696,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C98" t="s">
         <v>22</v>
@@ -7856,16 +7705,16 @@
         <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G98" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H98" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I98" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
@@ -7874,7 +7723,7 @@
         <v>20</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P98">
         <v>93</v>
@@ -7888,7 +7737,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C99" t="s">
         <v>22</v>
@@ -7897,16 +7746,16 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G99" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H99" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="I99" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J99" t="s">
         <v>19</v>
@@ -7915,7 +7764,7 @@
         <v>20</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P99">
         <v>71</v>
@@ -7929,25 +7778,25 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="G100" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H100" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="I100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J100" t="s">
         <v>19</v>
@@ -7956,7 +7805,7 @@
         <v>20</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P100">
         <v>162</v>
@@ -7970,7 +7819,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C101" t="s">
         <v>22</v>
@@ -7979,13 +7828,13 @@
         <v>2</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G101" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H101" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="I101" t="s">
         <v>279</v>
@@ -8020,13 +7869,13 @@
         <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H102" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="I102" t="s">
         <v>281</v>
@@ -8038,7 +7887,7 @@
         <v>20</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P102">
         <v>187</v>
@@ -8061,13 +7910,13 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H103" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="I103" t="s">
         <v>283</v>
@@ -8079,7 +7928,7 @@
         <v>20</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P103">
         <v>461</v>
@@ -8096,22 +7945,22 @@
         <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="G104" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H104" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="I104" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J104" t="s">
         <v>19</v>
@@ -8120,7 +7969,7 @@
         <v>20</v>
       </c>
       <c r="L104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P104">
         <v>314</v>
@@ -8134,26 +7983,26 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>285</v>
+      </c>
+      <c r="G105" t="s">
+        <v>179</v>
+      </c>
+      <c r="H105" t="s">
         <v>286</v>
       </c>
-      <c r="C105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="I105" t="s">
         <v>287</v>
       </c>
-      <c r="G105" t="s">
-        <v>193</v>
-      </c>
-      <c r="H105" t="s">
-        <v>288</v>
-      </c>
-      <c r="I105" t="s">
-        <v>289</v>
-      </c>
       <c r="J105" t="s">
         <v>19</v>
       </c>
@@ -8161,7 +8010,7 @@
         <v>20</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P105">
         <v>350</v>
@@ -8175,26 +8024,26 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
         <v>290</v>
       </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106">
-        <v>2</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
+        <v>179</v>
+      </c>
+      <c r="H106" t="s">
         <v>291</v>
       </c>
-      <c r="G106" t="s">
-        <v>193</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>292</v>
       </c>
-      <c r="I106" t="s">
-        <v>293</v>
-      </c>
       <c r="J106" t="s">
         <v>19</v>
       </c>
@@ -8202,7 +8051,7 @@
         <v>20</v>
       </c>
       <c r="L106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P106">
         <v>822</v>
@@ -8216,25 +8065,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E107">
         <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G107" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H107" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I107" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="J107" t="s">
         <v>19</v>
@@ -8257,25 +8106,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G108" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H108" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I108" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J108" t="s">
         <v>19</v>
@@ -8284,7 +8133,7 @@
         <v>20</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P108">
         <v>759</v>
@@ -8298,26 +8147,26 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>295</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>296</v>
+      </c>
+      <c r="G109" t="s">
+        <v>179</v>
+      </c>
+      <c r="H109" t="s">
+        <v>297</v>
+      </c>
+      <c r="I109" t="s">
         <v>298</v>
       </c>
-      <c r="C109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109">
-        <v>2</v>
-      </c>
-      <c r="F109" t="s">
-        <v>299</v>
-      </c>
-      <c r="G109" t="s">
-        <v>193</v>
-      </c>
-      <c r="H109" t="s">
-        <v>300</v>
-      </c>
-      <c r="I109" t="s">
-        <v>301</v>
-      </c>
       <c r="J109" t="s">
         <v>19</v>
       </c>
@@ -8325,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P109">
         <v>362</v>
@@ -8339,25 +8188,25 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C110" t="s">
         <v>14</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G110" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H110" t="s">
+        <v>297</v>
+      </c>
+      <c r="I110" t="s">
         <v>300</v>
-      </c>
-      <c r="I110" t="s">
-        <v>301</v>
       </c>
       <c r="J110" t="s">
         <v>19</v>
@@ -8380,7 +8229,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
         <v>14</v>
@@ -8389,16 +8238,16 @@
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G111" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H111" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="I111" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J111" t="s">
         <v>19</v>
@@ -8421,7 +8270,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C112" t="s">
         <v>14</v>
@@ -8430,16 +8279,16 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G112" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H112" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I112" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J112" t="s">
         <v>19</v>
@@ -8448,7 +8297,7 @@
         <v>20</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P112">
         <v>445</v>
@@ -8462,25 +8311,25 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>307</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>304</v>
+      </c>
+      <c r="G113" t="s">
+        <v>179</v>
+      </c>
+      <c r="H113" t="s">
+        <v>305</v>
+      </c>
+      <c r="I113" t="s">
         <v>308</v>
-      </c>
-      <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113" t="s">
-        <v>299</v>
-      </c>
-      <c r="G113" t="s">
-        <v>193</v>
-      </c>
-      <c r="H113" t="s">
-        <v>300</v>
-      </c>
-      <c r="I113" t="s">
-        <v>301</v>
       </c>
       <c r="J113" t="s">
         <v>19</v>
@@ -8512,16 +8361,16 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
+        <v>304</v>
+      </c>
+      <c r="G114" t="s">
+        <v>179</v>
+      </c>
+      <c r="H114" t="s">
+        <v>305</v>
+      </c>
+      <c r="I114" t="s">
         <v>310</v>
-      </c>
-      <c r="G114" t="s">
-        <v>193</v>
-      </c>
-      <c r="H114" t="s">
-        <v>311</v>
-      </c>
-      <c r="I114" t="s">
-        <v>312</v>
       </c>
       <c r="J114" t="s">
         <v>19</v>
@@ -8544,7 +8393,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C115" t="s">
         <v>14</v>
@@ -8553,16 +8402,16 @@
         <v>2</v>
       </c>
       <c r="F115" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G115" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H115" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J115" t="s">
         <v>19</v>
@@ -8585,7 +8434,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C116" t="s">
         <v>14</v>
@@ -8594,16 +8443,16 @@
         <v>2</v>
       </c>
       <c r="F116" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G116" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H116" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="I116" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J116" t="s">
         <v>19</v>
@@ -8612,7 +8461,7 @@
         <v>20</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P116">
         <v>74</v>
@@ -8626,26 +8475,26 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>316</v>
+      </c>
+      <c r="G117" t="s">
+        <v>179</v>
+      </c>
+      <c r="H117" t="s">
         <v>317</v>
       </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-      <c r="F117" t="s">
+      <c r="I117" t="s">
         <v>318</v>
       </c>
-      <c r="G117" t="s">
-        <v>193</v>
-      </c>
-      <c r="H117" t="s">
-        <v>319</v>
-      </c>
-      <c r="I117" t="s">
-        <v>320</v>
-      </c>
       <c r="J117" t="s">
         <v>19</v>
       </c>
@@ -8653,7 +8502,7 @@
         <v>20</v>
       </c>
       <c r="L117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P117">
         <v>274</v>
@@ -8667,25 +8516,25 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E118">
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G118" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H118" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I118" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J118" t="s">
         <v>19</v>
@@ -8708,25 +8557,25 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E119">
         <v>2</v>
       </c>
       <c r="F119" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G119" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H119" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J119" t="s">
         <v>19</v>
@@ -8749,25 +8598,25 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E120">
         <v>2</v>
       </c>
       <c r="F120" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G120" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H120" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J120" t="s">
         <v>19</v>
@@ -8776,7 +8625,7 @@
         <v>20</v>
       </c>
       <c r="L120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P120">
         <v>55</v>
@@ -8790,7 +8639,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
         <v>14</v>
@@ -8799,16 +8648,16 @@
         <v>2</v>
       </c>
       <c r="F121" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="G121" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H121" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="I121" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="J121" t="s">
         <v>19</v>
@@ -8817,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="L121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P121">
         <v>66</v>
@@ -8831,25 +8680,25 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C122" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E122">
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>318</v>
+        <v>285</v>
       </c>
       <c r="G122" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H122" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="I122" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="J122" t="s">
         <v>19</v>
@@ -8858,7 +8707,7 @@
         <v>20</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P122">
         <v>393</v>
@@ -8872,25 +8721,25 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
       <c r="F123" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G123" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H123" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I123" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J123" t="s">
         <v>19</v>
@@ -8899,7 +8748,7 @@
         <v>20</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P123">
         <v>174</v>
@@ -8913,25 +8762,25 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="F124" t="s">
+        <v>328</v>
+      </c>
+      <c r="G124" t="s">
+        <v>179</v>
+      </c>
+      <c r="H124" t="s">
+        <v>329</v>
+      </c>
+      <c r="I124" t="s">
         <v>332</v>
-      </c>
-      <c r="G124" t="s">
-        <v>193</v>
-      </c>
-      <c r="H124" t="s">
-        <v>333</v>
-      </c>
-      <c r="I124" t="s">
-        <v>336</v>
       </c>
       <c r="J124" t="s">
         <v>19</v>
@@ -8954,25 +8803,25 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G125" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H125" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I125" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J125" t="s">
         <v>19</v>
@@ -8995,25 +8844,25 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C126" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>2</v>
       </c>
       <c r="F126" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G126" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H126" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I126" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J126" t="s">
         <v>19</v>
@@ -9022,7 +8871,7 @@
         <v>20</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P126">
         <v>282</v>
@@ -9036,25 +8885,25 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C127" t="s">
         <v>14</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G127" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H127" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="I127" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J127" t="s">
         <v>19</v>
@@ -9077,25 +8926,25 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>341</v>
+      </c>
+      <c r="C128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+      <c r="F128" t="s">
+        <v>338</v>
+      </c>
+      <c r="G128" t="s">
+        <v>179</v>
+      </c>
+      <c r="H128" t="s">
+        <v>339</v>
+      </c>
+      <c r="I128" t="s">
         <v>342</v>
-      </c>
-      <c r="C128" t="s">
-        <v>22</v>
-      </c>
-      <c r="E128">
-        <v>2</v>
-      </c>
-      <c r="F128" t="s">
-        <v>299</v>
-      </c>
-      <c r="G128" t="s">
-        <v>193</v>
-      </c>
-      <c r="H128" t="s">
-        <v>300</v>
-      </c>
-      <c r="I128" t="s">
-        <v>301</v>
       </c>
       <c r="J128" t="s">
         <v>19</v>
@@ -9124,20 +8973,20 @@
         <v>14</v>
       </c>
       <c r="E129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="s">
+        <v>338</v>
+      </c>
+      <c r="G129" t="s">
+        <v>179</v>
+      </c>
+      <c r="H129" t="s">
+        <v>339</v>
+      </c>
+      <c r="I129" t="s">
         <v>344</v>
       </c>
-      <c r="G129" t="s">
-        <v>193</v>
-      </c>
-      <c r="H129" t="s">
-        <v>345</v>
-      </c>
-      <c r="I129" t="s">
-        <v>346</v>
-      </c>
       <c r="J129" t="s">
         <v>19</v>
       </c>
@@ -9145,7 +8994,7 @@
         <v>20</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P129">
         <v>72</v>
@@ -9159,25 +9008,25 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C130" t="s">
         <v>14</v>
       </c>
       <c r="E130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G130" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H130" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I130" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J130" t="s">
         <v>19</v>
@@ -9200,25 +9049,25 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C131" t="s">
         <v>14</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F131" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G131" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H131" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I131" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J131" t="s">
         <v>19</v>
@@ -9241,25 +9090,25 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C132" t="s">
         <v>14</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G132" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H132" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="I132" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J132" t="s">
         <v>19</v>
@@ -9268,7 +9117,7 @@
         <v>20</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P132">
         <v>62</v>
@@ -9282,7 +9131,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C133" t="s">
         <v>14</v>
@@ -9291,16 +9140,16 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G133" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H133" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I133" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J133" t="s">
         <v>19</v>
@@ -9323,7 +9172,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C134" t="s">
         <v>14</v>
@@ -9332,17 +9181,17 @@
         <v>3</v>
       </c>
       <c r="F134" t="s">
+        <v>338</v>
+      </c>
+      <c r="G134" t="s">
+        <v>179</v>
+      </c>
+      <c r="H134" t="s">
+        <v>339</v>
+      </c>
+      <c r="I134" t="s">
         <v>354</v>
       </c>
-      <c r="G134" t="s">
-        <v>193</v>
-      </c>
-      <c r="H134" t="s">
-        <v>355</v>
-      </c>
-      <c r="I134" t="s">
-        <v>358</v>
-      </c>
       <c r="J134" t="s">
         <v>19</v>
       </c>
@@ -9350,7 +9199,7 @@
         <v>20</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P134">
         <v>919</v>
@@ -9364,7 +9213,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C135" t="s">
         <v>14</v>
@@ -9373,16 +9222,16 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G135" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H135" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I135" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
@@ -9391,7 +9240,7 @@
         <v>20</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P135">
         <v>889</v>
@@ -9405,7 +9254,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -9414,16 +9263,16 @@
         <v>3</v>
       </c>
       <c r="F136" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G136" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H136" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I136" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J136" t="s">
         <v>19</v>
@@ -9446,7 +9295,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -9455,16 +9304,16 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G137" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H137" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I137" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J137" t="s">
         <v>19</v>
@@ -9487,7 +9336,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C138" t="s">
         <v>14</v>
@@ -9496,16 +9345,16 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="G138" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H138" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="I138" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J138" t="s">
         <v>19</v>
@@ -9514,7 +9363,7 @@
         <v>20</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P138">
         <v>666</v>
@@ -9528,25 +9377,25 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C139" t="s">
         <v>14</v>
       </c>
       <c r="E139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G139" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H139" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I139" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J139" t="s">
         <v>19</v>
@@ -9555,7 +9404,7 @@
         <v>20</v>
       </c>
       <c r="L139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P139">
         <v>332</v>
@@ -9569,25 +9418,25 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C140" t="s">
         <v>14</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G140" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H140" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I140" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
@@ -9610,25 +9459,25 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C141" t="s">
         <v>14</v>
       </c>
       <c r="E141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G141" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H141" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I141" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
@@ -9651,25 +9500,25 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C142" t="s">
         <v>14</v>
       </c>
       <c r="E142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G142" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H142" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I142" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
@@ -9678,7 +9527,7 @@
         <v>20</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P142">
         <v>423</v>
@@ -9692,25 +9541,25 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C143" t="s">
         <v>14</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="G143" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H143" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="I143" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
@@ -9719,7 +9568,7 @@
         <v>20</v>
       </c>
       <c r="L143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P143">
         <v>287</v>
@@ -9733,25 +9582,25 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
+        <v>375</v>
+      </c>
+      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>376</v>
+      </c>
+      <c r="G144" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" t="s">
+        <v>286</v>
+      </c>
+      <c r="I144" t="s">
         <v>377</v>
-      </c>
-      <c r="C144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144">
-        <v>3</v>
-      </c>
-      <c r="F144" t="s">
-        <v>354</v>
-      </c>
-      <c r="G144" t="s">
-        <v>193</v>
-      </c>
-      <c r="H144" t="s">
-        <v>355</v>
-      </c>
-      <c r="I144" t="s">
-        <v>378</v>
       </c>
       <c r="J144" t="s">
         <v>19</v>
@@ -9774,25 +9623,25 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
         <v>379</v>
       </c>
-      <c r="C145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145">
-        <v>2</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
+        <v>69</v>
+      </c>
+      <c r="H145" t="s">
+        <v>286</v>
+      </c>
+      <c r="I145" t="s">
         <v>380</v>
-      </c>
-      <c r="G145" t="s">
-        <v>193</v>
-      </c>
-      <c r="H145" t="s">
-        <v>381</v>
-      </c>
-      <c r="I145" t="s">
-        <v>382</v>
       </c>
       <c r="J145" t="s">
         <v>19</v>
@@ -9815,25 +9664,25 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>382</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" t="s">
+        <v>286</v>
+      </c>
+      <c r="I146" t="s">
         <v>383</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146">
-        <v>2</v>
-      </c>
-      <c r="F146" t="s">
-        <v>380</v>
-      </c>
-      <c r="G146" t="s">
-        <v>193</v>
-      </c>
-      <c r="H146" t="s">
-        <v>381</v>
-      </c>
-      <c r="I146" t="s">
-        <v>384</v>
       </c>
       <c r="J146" t="s">
         <v>19</v>
@@ -9856,22 +9705,22 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
         <v>385</v>
       </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147">
-        <v>2</v>
-      </c>
-      <c r="F147" t="s">
-        <v>380</v>
-      </c>
       <c r="G147" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="H147" t="s">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="I147" t="s">
         <v>386</v>
@@ -9900,22 +9749,22 @@
         <v>387</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F148" t="s">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="G148" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="H148" t="s">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="I148" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="J148" t="s">
         <v>19</v>
@@ -9924,7 +9773,7 @@
         <v>20</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P148">
         <v>82</v>
@@ -9938,25 +9787,25 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>388</v>
+      </c>
+      <c r="C149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
         <v>389</v>
       </c>
-      <c r="C149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149">
-        <v>2</v>
-      </c>
-      <c r="F149" t="s">
-        <v>380</v>
-      </c>
       <c r="G149" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="H149" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="I149" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J149" t="s">
         <v>19</v>
@@ -9965,7 +9814,7 @@
         <v>20</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P149">
         <v>56</v>
@@ -9979,28 +9828,25 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>392</v>
+        <v>285</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="H150" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="I150" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J150" t="s">
         <v>19</v>
@@ -10009,7 +9855,7 @@
         <v>20</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P150">
         <v>1065</v>
@@ -10023,7 +9869,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C151" t="s">
         <v>14</v>
@@ -10032,16 +9878,16 @@
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G151" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="H151" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
       <c r="I151" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J151" t="s">
         <v>19</v>
@@ -10064,7 +9910,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C152" t="s">
         <v>14</v>
@@ -10073,16 +9919,16 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G152" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="H152" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="I152" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="J152" t="s">
         <v>19</v>
@@ -10091,7 +9937,7 @@
         <v>20</v>
       </c>
       <c r="L152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P152">
         <v>848</v>
@@ -10105,7 +9951,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C153" t="s">
         <v>14</v>
@@ -10117,13 +9963,13 @@
         <v>401</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>402</v>
       </c>
       <c r="H153" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="I153" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="J153" t="s">
         <v>19</v>
@@ -10146,7 +9992,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C154" t="s">
         <v>14</v>
@@ -10155,16 +10001,16 @@
         <v>2</v>
       </c>
       <c r="F154" t="s">
-        <v>404</v>
+        <v>285</v>
       </c>
       <c r="G154" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="H154" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I154" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J154" t="s">
         <v>19</v>
@@ -10173,7 +10019,7 @@
         <v>20</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P154">
         <v>797</v>
@@ -10187,25 +10033,25 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
+        <v>408</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>409</v>
+      </c>
+      <c r="G155" t="s">
         <v>406</v>
       </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155">
-        <v>3</v>
-      </c>
-      <c r="F155" t="s">
-        <v>407</v>
-      </c>
-      <c r="G155" t="s">
-        <v>71</v>
-      </c>
       <c r="H155" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="I155" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="J155" t="s">
         <v>19</v>
@@ -10214,7 +10060,7 @@
         <v>20</v>
       </c>
       <c r="L155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P155">
         <v>1535</v>
@@ -10228,7 +10074,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C156" t="s">
         <v>14</v>
@@ -10237,16 +10083,16 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G156" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="H156" t="s">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="I156" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J156" t="s">
         <v>19</v>
@@ -10269,25 +10115,28 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C157" t="s">
         <v>14</v>
       </c>
+      <c r="D157">
+        <v>75</v>
+      </c>
       <c r="E157">
         <v>2</v>
       </c>
       <c r="F157" t="s">
+        <v>285</v>
+      </c>
+      <c r="G157" t="s">
         <v>413</v>
       </c>
-      <c r="G157" t="s">
-        <v>71</v>
-      </c>
       <c r="H157" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I157" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J157" t="s">
         <v>19</v>
@@ -10310,22 +10159,22 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C158" t="s">
         <v>14</v>
       </c>
       <c r="E158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="G158" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="H158" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I158" t="s">
         <v>417</v>
@@ -10337,7 +10186,7 @@
         <v>20</v>
       </c>
       <c r="L158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P158">
         <v>1645</v>
@@ -10351,25 +10200,25 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F159" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>421</v>
       </c>
       <c r="H159" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I159" t="s">
-        <v>301</v>
+        <v>423</v>
       </c>
       <c r="J159" t="s">
         <v>19</v>
@@ -10378,7 +10227,7 @@
         <v>20</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P159">
         <v>440</v>
@@ -10392,7 +10241,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C160" t="s">
         <v>14</v>
@@ -10401,16 +10250,16 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G160" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H160" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I160" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="J160" t="s">
         <v>19</v>
@@ -10433,25 +10282,25 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E161">
         <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
       <c r="G161" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H161" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I161" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J161" t="s">
         <v>19</v>
@@ -10460,7 +10309,7 @@
         <v>20</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P161">
         <v>312</v>
@@ -10474,26 +10323,26 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C162" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E162">
         <v>2</v>
       </c>
       <c r="F162" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G162" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H162" t="s">
+        <v>422</v>
+      </c>
+      <c r="I162" t="s">
         <v>429</v>
       </c>
-      <c r="I162" t="s">
-        <v>430</v>
-      </c>
       <c r="J162" t="s">
         <v>19</v>
       </c>
@@ -10501,7 +10350,7 @@
         <v>20</v>
       </c>
       <c r="L162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P162">
         <v>1020</v>
@@ -10527,14 +10376,14 @@
         <v>432</v>
       </c>
       <c r="G163" t="s">
+        <v>421</v>
+      </c>
+      <c r="H163" t="s">
+        <v>422</v>
+      </c>
+      <c r="I163" t="s">
         <v>433</v>
       </c>
-      <c r="H163" t="s">
-        <v>434</v>
-      </c>
-      <c r="I163" t="s">
-        <v>320</v>
-      </c>
       <c r="J163" t="s">
         <v>19</v>
       </c>
@@ -10542,7 +10391,7 @@
         <v>20</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P163">
         <v>158</v>
@@ -10556,25 +10405,25 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
+        <v>434</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164" t="s">
         <v>435</v>
       </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164">
-        <v>2</v>
-      </c>
-      <c r="F164" t="s">
-        <v>432</v>
-      </c>
       <c r="G164" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H164" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="I164" t="s">
-        <v>320</v>
+        <v>436</v>
       </c>
       <c r="J164" t="s">
         <v>19</v>
@@ -10583,7 +10432,7 @@
         <v>20</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P164">
         <v>78</v>
@@ -10597,7 +10446,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C165" t="s">
         <v>14</v>
@@ -10606,16 +10455,16 @@
         <v>2</v>
       </c>
       <c r="F165" t="s">
-        <v>299</v>
+        <v>438</v>
       </c>
       <c r="G165" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H165" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I165" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J165" t="s">
         <v>19</v>
@@ -10638,25 +10487,25 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C166" t="s">
         <v>14</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G166" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H166" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="I166" t="s">
-        <v>320</v>
+        <v>442</v>
       </c>
       <c r="J166" t="s">
         <v>19</v>
@@ -10665,7 +10514,7 @@
         <v>20</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P166">
         <v>175</v>
@@ -10679,7 +10528,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C167" t="s">
         <v>14</v>
@@ -10688,17 +10537,17 @@
         <v>2</v>
       </c>
       <c r="F167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G167" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="H167" t="s">
+        <v>422</v>
+      </c>
+      <c r="I167" t="s">
         <v>445</v>
       </c>
-      <c r="I167" t="s">
-        <v>446</v>
-      </c>
       <c r="J167" t="s">
         <v>19</v>
       </c>
@@ -10706,7 +10555,7 @@
         <v>20</v>
       </c>
       <c r="L167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P167">
         <v>1060</v>
@@ -10720,25 +10569,22 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
         <v>447</v>
       </c>
-      <c r="C168" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168">
-        <v>75</v>
-      </c>
-      <c r="E168">
-        <v>2</v>
-      </c>
-      <c r="F168" t="s">
-        <v>299</v>
-      </c>
       <c r="G168" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="H168" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I168" t="s">
         <v>448</v>
@@ -10770,16 +10616,16 @@
         <v>14</v>
       </c>
       <c r="E169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F169" t="s">
-        <v>299</v>
+        <v>447</v>
       </c>
       <c r="G169" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="H169" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I169" t="s">
         <v>448</v>
@@ -10808,7 +10654,7 @@
         <v>450</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E170">
         <v>2</v>
@@ -10817,13 +10663,13 @@
         <v>451</v>
       </c>
       <c r="G170" t="s">
+        <v>421</v>
+      </c>
+      <c r="H170" t="s">
+        <v>422</v>
+      </c>
+      <c r="I170" t="s">
         <v>452</v>
-      </c>
-      <c r="H170" t="s">
-        <v>453</v>
-      </c>
-      <c r="I170" t="s">
-        <v>454</v>
       </c>
       <c r="J170" t="s">
         <v>19</v>
@@ -10846,26 +10692,26 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
+        <v>453</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>454</v>
+      </c>
+      <c r="G171" t="s">
+        <v>421</v>
+      </c>
+      <c r="H171" t="s">
+        <v>422</v>
+      </c>
+      <c r="I171" t="s">
         <v>455</v>
       </c>
-      <c r="C171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171">
-        <v>2</v>
-      </c>
-      <c r="F171" t="s">
-        <v>456</v>
-      </c>
-      <c r="G171" t="s">
-        <v>452</v>
-      </c>
-      <c r="H171" t="s">
-        <v>453</v>
-      </c>
-      <c r="I171" t="s">
-        <v>457</v>
-      </c>
       <c r="J171" t="s">
         <v>19</v>
       </c>
@@ -10873,7 +10719,7 @@
         <v>20</v>
       </c>
       <c r="L171">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P171">
         <v>125</v>
@@ -10887,26 +10733,26 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
+        <v>456</v>
+      </c>
+      <c r="C172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>457</v>
+      </c>
+      <c r="G172" t="s">
+        <v>421</v>
+      </c>
+      <c r="H172" t="s">
+        <v>422</v>
+      </c>
+      <c r="I172" t="s">
         <v>458</v>
       </c>
-      <c r="C172" t="s">
-        <v>22</v>
-      </c>
-      <c r="E172">
-        <v>2</v>
-      </c>
-      <c r="F172" t="s">
-        <v>459</v>
-      </c>
-      <c r="G172" t="s">
-        <v>452</v>
-      </c>
-      <c r="H172" t="s">
-        <v>453</v>
-      </c>
-      <c r="I172" t="s">
-        <v>460</v>
-      </c>
       <c r="J172" t="s">
         <v>19</v>
       </c>
@@ -10914,7 +10760,7 @@
         <v>20</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P172">
         <v>220</v>
@@ -10928,22 +10774,22 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E173">
         <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G173" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H173" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I173" t="s">
         <v>460</v>
@@ -10969,26 +10815,26 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
+        <v>461</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
         <v>462</v>
       </c>
-      <c r="C174" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174">
-        <v>2</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
+        <v>421</v>
+      </c>
+      <c r="H174" t="s">
+        <v>422</v>
+      </c>
+      <c r="I174" t="s">
         <v>463</v>
       </c>
-      <c r="G174" t="s">
-        <v>452</v>
-      </c>
-      <c r="H174" t="s">
-        <v>453</v>
-      </c>
-      <c r="I174" t="s">
-        <v>464</v>
-      </c>
       <c r="J174" t="s">
         <v>19</v>
       </c>
@@ -10996,7 +10842,7 @@
         <v>20</v>
       </c>
       <c r="L174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P174">
         <v>178</v>
@@ -11010,25 +10856,25 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
+        <v>464</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175" t="s">
         <v>465</v>
       </c>
-      <c r="C175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175">
-        <v>3</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
+        <v>421</v>
+      </c>
+      <c r="H175" t="s">
+        <v>422</v>
+      </c>
+      <c r="I175" t="s">
         <v>466</v>
-      </c>
-      <c r="G175" t="s">
-        <v>452</v>
-      </c>
-      <c r="H175" t="s">
-        <v>453</v>
-      </c>
-      <c r="I175" t="s">
-        <v>467</v>
       </c>
       <c r="J175" t="s">
         <v>19</v>
@@ -11051,25 +10897,25 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
+        <v>467</v>
+      </c>
+      <c r="C176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
         <v>468</v>
       </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176">
-        <v>2</v>
-      </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
+        <v>421</v>
+      </c>
+      <c r="H176" t="s">
+        <v>422</v>
+      </c>
+      <c r="I176" t="s">
         <v>469</v>
-      </c>
-      <c r="G176" t="s">
-        <v>452</v>
-      </c>
-      <c r="H176" t="s">
-        <v>453</v>
-      </c>
-      <c r="I176" t="s">
-        <v>470</v>
       </c>
       <c r="J176" t="s">
         <v>19</v>
@@ -11092,26 +10938,26 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
+        <v>470</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
         <v>471</v>
       </c>
-      <c r="C177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177">
-        <v>3</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
+        <v>421</v>
+      </c>
+      <c r="H177" t="s">
+        <v>422</v>
+      </c>
+      <c r="I177" t="s">
         <v>472</v>
       </c>
-      <c r="G177" t="s">
-        <v>452</v>
-      </c>
-      <c r="H177" t="s">
-        <v>453</v>
-      </c>
-      <c r="I177" t="s">
-        <v>473</v>
-      </c>
       <c r="J177" t="s">
         <v>19</v>
       </c>
@@ -11119,7 +10965,7 @@
         <v>20</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P177">
         <v>200</v>
@@ -11133,25 +10979,25 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
+        <v>473</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
         <v>474</v>
       </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178">
-        <v>2</v>
-      </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
+        <v>421</v>
+      </c>
+      <c r="H178" t="s">
+        <v>422</v>
+      </c>
+      <c r="I178" t="s">
         <v>475</v>
-      </c>
-      <c r="G178" t="s">
-        <v>452</v>
-      </c>
-      <c r="H178" t="s">
-        <v>453</v>
-      </c>
-      <c r="I178" t="s">
-        <v>476</v>
       </c>
       <c r="J178" t="s">
         <v>19</v>
@@ -11174,25 +11020,25 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
+        <v>476</v>
+      </c>
+      <c r="C179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
         <v>477</v>
       </c>
-      <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179">
-        <v>2</v>
-      </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
+        <v>421</v>
+      </c>
+      <c r="H179" t="s">
+        <v>422</v>
+      </c>
+      <c r="I179" t="s">
         <v>478</v>
-      </c>
-      <c r="G179" t="s">
-        <v>452</v>
-      </c>
-      <c r="H179" t="s">
-        <v>453</v>
-      </c>
-      <c r="I179" t="s">
-        <v>479</v>
       </c>
       <c r="J179" t="s">
         <v>19</v>
@@ -11215,25 +11061,25 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
+        <v>479</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>477</v>
+      </c>
+      <c r="G180" t="s">
+        <v>421</v>
+      </c>
+      <c r="H180" t="s">
+        <v>422</v>
+      </c>
+      <c r="I180" t="s">
         <v>480</v>
-      </c>
-      <c r="C180" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180">
-        <v>2</v>
-      </c>
-      <c r="F180" t="s">
-        <v>478</v>
-      </c>
-      <c r="G180" t="s">
-        <v>452</v>
-      </c>
-      <c r="H180" t="s">
-        <v>453</v>
-      </c>
-      <c r="I180" t="s">
-        <v>479</v>
       </c>
       <c r="J180" t="s">
         <v>19</v>
@@ -11268,10 +11114,10 @@
         <v>482</v>
       </c>
       <c r="G181" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H181" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I181" t="s">
         <v>483</v>
@@ -11300,7 +11146,7 @@
         <v>484</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -11309,10 +11155,10 @@
         <v>485</v>
       </c>
       <c r="G182" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H182" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I182" t="s">
         <v>486</v>
@@ -11324,7 +11170,7 @@
         <v>20</v>
       </c>
       <c r="L182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P182">
         <v>42</v>
@@ -11341,19 +11187,19 @@
         <v>487</v>
       </c>
       <c r="C183" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F183" t="s">
         <v>488</v>
       </c>
       <c r="G183" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H183" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I183" t="s">
         <v>489</v>
@@ -11365,7 +11211,7 @@
         <v>20</v>
       </c>
       <c r="L183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P183">
         <v>94</v>
@@ -11388,16 +11234,16 @@
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G184" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H184" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I184" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J184" t="s">
         <v>19</v>
@@ -11420,25 +11266,25 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G185" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="H185" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="I185" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J185" t="s">
         <v>19</v>
@@ -11461,25 +11307,25 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C186" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F186" t="s">
-        <v>496</v>
+        <v>285</v>
       </c>
       <c r="G186" t="s">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="H186" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="I186" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J186" t="s">
         <v>19</v>
@@ -11488,7 +11334,7 @@
         <v>20</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P186">
         <v>142</v>
@@ -11502,25 +11348,25 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G187" t="s">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="H187" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="I187" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J187" t="s">
         <v>19</v>
@@ -11543,22 +11389,22 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>502</v>
+        <v>285</v>
       </c>
       <c r="G188" t="s">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="H188" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="I188" t="s">
         <v>503</v>
@@ -11570,7 +11416,7 @@
         <v>20</v>
       </c>
       <c r="L188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P188">
         <v>598</v>
@@ -11593,16 +11439,16 @@
         <v>2</v>
       </c>
       <c r="F189" t="s">
+        <v>285</v>
+      </c>
+      <c r="G189" t="s">
+        <v>69</v>
+      </c>
+      <c r="H189" t="s">
+        <v>497</v>
+      </c>
+      <c r="I189" t="s">
         <v>505</v>
-      </c>
-      <c r="G189" t="s">
-        <v>452</v>
-      </c>
-      <c r="H189" t="s">
-        <v>453</v>
-      </c>
-      <c r="I189" t="s">
-        <v>506</v>
       </c>
       <c r="J189" t="s">
         <v>19</v>
@@ -11625,26 +11471,26 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
+        <v>506</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>285</v>
+      </c>
+      <c r="G190" t="s">
+        <v>69</v>
+      </c>
+      <c r="H190" t="s">
+        <v>497</v>
+      </c>
+      <c r="I190" t="s">
         <v>507</v>
       </c>
-      <c r="C190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190">
-        <v>2</v>
-      </c>
-      <c r="F190" t="s">
-        <v>508</v>
-      </c>
-      <c r="G190" t="s">
-        <v>452</v>
-      </c>
-      <c r="H190" t="s">
-        <v>453</v>
-      </c>
-      <c r="I190" t="s">
-        <v>509</v>
-      </c>
       <c r="J190" t="s">
         <v>19</v>
       </c>
@@ -11652,7 +11498,7 @@
         <v>20</v>
       </c>
       <c r="L190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P190">
         <v>230</v>
@@ -11666,26 +11512,26 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
+        <v>508</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>509</v>
+      </c>
+      <c r="G191" t="s">
+        <v>69</v>
+      </c>
+      <c r="H191" t="s">
+        <v>497</v>
+      </c>
+      <c r="I191" t="s">
         <v>510</v>
       </c>
-      <c r="C191" t="s">
-        <v>14</v>
-      </c>
-      <c r="E191">
-        <v>2</v>
-      </c>
-      <c r="F191" t="s">
-        <v>508</v>
-      </c>
-      <c r="G191" t="s">
-        <v>452</v>
-      </c>
-      <c r="H191" t="s">
-        <v>453</v>
-      </c>
-      <c r="I191" t="s">
-        <v>511</v>
-      </c>
       <c r="J191" t="s">
         <v>19</v>
       </c>
@@ -11693,7 +11539,7 @@
         <v>20</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P191">
         <v>92</v>
@@ -11707,25 +11553,25 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
+        <v>511</v>
+      </c>
+      <c r="C192" t="s">
+        <v>14</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s">
         <v>512</v>
       </c>
-      <c r="C192" t="s">
-        <v>22</v>
-      </c>
-      <c r="E192">
-        <v>2</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
+        <v>69</v>
+      </c>
+      <c r="H192" t="s">
+        <v>497</v>
+      </c>
+      <c r="I192" t="s">
         <v>513</v>
-      </c>
-      <c r="G192" t="s">
-        <v>452</v>
-      </c>
-      <c r="H192" t="s">
-        <v>453</v>
-      </c>
-      <c r="I192" t="s">
-        <v>514</v>
       </c>
       <c r="J192" t="s">
         <v>19</v>
@@ -11748,25 +11594,25 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
+        <v>514</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>285</v>
+      </c>
+      <c r="G193" t="s">
+        <v>69</v>
+      </c>
+      <c r="H193" t="s">
+        <v>497</v>
+      </c>
+      <c r="I193" t="s">
         <v>515</v>
-      </c>
-      <c r="C193" t="s">
-        <v>14</v>
-      </c>
-      <c r="E193">
-        <v>2</v>
-      </c>
-      <c r="F193" t="s">
-        <v>516</v>
-      </c>
-      <c r="G193" t="s">
-        <v>452</v>
-      </c>
-      <c r="H193" t="s">
-        <v>453</v>
-      </c>
-      <c r="I193" t="s">
-        <v>517</v>
       </c>
       <c r="J193" t="s">
         <v>19</v>
@@ -11789,26 +11635,26 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>516</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>517</v>
+      </c>
+      <c r="G194" t="s">
+        <v>69</v>
+      </c>
+      <c r="H194" t="s">
+        <v>497</v>
+      </c>
+      <c r="I194" t="s">
         <v>518</v>
       </c>
-      <c r="C194" t="s">
-        <v>22</v>
-      </c>
-      <c r="E194">
-        <v>3</v>
-      </c>
-      <c r="F194" t="s">
-        <v>519</v>
-      </c>
-      <c r="G194" t="s">
-        <v>452</v>
-      </c>
-      <c r="H194" t="s">
-        <v>453</v>
-      </c>
-      <c r="I194" t="s">
-        <v>520</v>
-      </c>
       <c r="J194" t="s">
         <v>19</v>
       </c>
@@ -11816,7 +11662,7 @@
         <v>20</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P194">
         <v>197</v>
@@ -11830,7 +11676,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C195" t="s">
         <v>14</v>
@@ -11839,16 +11685,16 @@
         <v>2</v>
       </c>
       <c r="F195" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G195" t="s">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="H195" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="I195" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J195" t="s">
         <v>19</v>
@@ -11857,7 +11703,7 @@
         <v>20</v>
       </c>
       <c r="L195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P195">
         <v>110</v>
@@ -11871,25 +11717,25 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C196" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F196" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G196" t="s">
-        <v>452</v>
+        <v>69</v>
       </c>
       <c r="H196" t="s">
-        <v>453</v>
+        <v>497</v>
       </c>
       <c r="I196" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J196" t="s">
         <v>19</v>
@@ -11898,7 +11744,7 @@
         <v>20</v>
       </c>
       <c r="L196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P196">
         <v>154</v>
@@ -11912,7 +11758,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C197" t="s">
         <v>14</v>
@@ -11921,16 +11767,16 @@
         <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G197" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H197" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I197" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="J197" t="s">
         <v>19</v>
@@ -11953,25 +11799,25 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C198" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F198" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G198" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H198" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I198" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="J198" t="s">
         <v>19</v>
@@ -11994,7 +11840,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C199" t="s">
         <v>22</v>
@@ -12003,16 +11849,16 @@
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>299</v>
+        <v>529</v>
       </c>
       <c r="G199" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H199" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I199" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J199" t="s">
         <v>19</v>
@@ -12035,7 +11881,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C200" t="s">
         <v>22</v>
@@ -12044,16 +11890,16 @@
         <v>2</v>
       </c>
       <c r="F200" t="s">
-        <v>299</v>
+        <v>532</v>
       </c>
       <c r="G200" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H200" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I200" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J200" t="s">
         <v>19</v>
@@ -12076,25 +11922,25 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F201" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G201" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H201" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I201" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J201" t="s">
         <v>19</v>
@@ -12103,7 +11949,7 @@
         <v>20</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P201">
         <v>553</v>
@@ -12117,25 +11963,25 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E202">
         <v>2</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>285</v>
       </c>
       <c r="G202" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H202" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I202" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="J202" t="s">
         <v>19</v>
@@ -12144,7 +11990,7 @@
         <v>20</v>
       </c>
       <c r="L202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P202">
         <v>398</v>
@@ -12158,25 +12004,25 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
       </c>
       <c r="E203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>543</v>
+        <v>338</v>
       </c>
       <c r="G203" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H203" t="s">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="I203" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="J203" t="s">
         <v>19</v>
@@ -12185,7 +12031,7 @@
         <v>20</v>
       </c>
       <c r="L203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P203">
         <v>378</v>
@@ -12199,25 +12045,25 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
       </c>
       <c r="E204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G204" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H204" t="s">
-        <v>528</v>
+        <v>286</v>
       </c>
       <c r="I204" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="J204" t="s">
         <v>19</v>
@@ -12226,7 +12072,7 @@
         <v>20</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P204">
         <v>802</v>
@@ -12240,7 +12086,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C205" t="s">
         <v>14</v>
@@ -12249,16 +12095,16 @@
         <v>2</v>
       </c>
       <c r="F205" t="s">
-        <v>299</v>
+        <v>543</v>
       </c>
       <c r="G205" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H205" t="s">
-        <v>528</v>
+        <v>286</v>
       </c>
       <c r="I205" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J205" t="s">
         <v>19</v>
@@ -12281,25 +12127,25 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E206">
         <v>2</v>
       </c>
       <c r="F206" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G206" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H206" t="s">
-        <v>528</v>
+        <v>286</v>
       </c>
       <c r="I206" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J206" t="s">
         <v>19</v>
@@ -12308,7 +12154,7 @@
         <v>20</v>
       </c>
       <c r="L206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P206">
         <v>221</v>
@@ -12322,7 +12168,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C207" t="s">
         <v>14</v>
@@ -12331,17 +12177,17 @@
         <v>2</v>
       </c>
       <c r="F207" t="s">
+        <v>549</v>
+      </c>
+      <c r="G207" t="s">
+        <v>69</v>
+      </c>
+      <c r="H207" t="s">
+        <v>286</v>
+      </c>
+      <c r="I207" t="s">
         <v>550</v>
       </c>
-      <c r="G207" t="s">
-        <v>71</v>
-      </c>
-      <c r="H207" t="s">
-        <v>528</v>
-      </c>
-      <c r="I207" t="s">
-        <v>553</v>
-      </c>
       <c r="J207" t="s">
         <v>19</v>
       </c>
@@ -12349,7 +12195,7 @@
         <v>20</v>
       </c>
       <c r="L207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P207">
         <v>102</v>
@@ -12363,26 +12209,23 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
+        <v>551</v>
+      </c>
+      <c r="C208" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208">
+        <v>3</v>
+      </c>
+      <c r="F208" t="s">
+        <v>552</v>
+      </c>
+      <c r="G208" t="s">
+        <v>553</v>
+      </c>
+      <c r="H208" t="s">
         <v>554</v>
       </c>
-      <c r="C208" t="s">
-        <v>14</v>
-      </c>
-      <c r="E208">
-        <v>2</v>
-      </c>
-      <c r="F208" t="s">
-        <v>550</v>
-      </c>
-      <c r="G208" t="s">
-        <v>71</v>
-      </c>
-      <c r="H208" t="s">
-        <v>528</v>
-      </c>
-      <c r="I208" t="s">
-        <v>555</v>
-      </c>
       <c r="J208" t="s">
         <v>19</v>
       </c>
@@ -12390,7 +12233,7 @@
         <v>20</v>
       </c>
       <c r="L208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P208">
         <v>153</v>
@@ -12404,25 +12247,22 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
+        <v>555</v>
+      </c>
+      <c r="C209" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
         <v>556</v>
       </c>
-      <c r="C209" t="s">
-        <v>14</v>
-      </c>
-      <c r="E209">
-        <v>2</v>
-      </c>
-      <c r="F209" t="s">
-        <v>299</v>
-      </c>
       <c r="G209" t="s">
-        <v>71</v>
+        <v>557</v>
       </c>
       <c r="H209" t="s">
-        <v>528</v>
-      </c>
-      <c r="I209" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J209" t="s">
         <v>19</v>
@@ -12431,7 +12271,7 @@
         <v>20</v>
       </c>
       <c r="L209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P209">
         <v>1233</v>
@@ -12445,25 +12285,25 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C210" t="s">
         <v>14</v>
       </c>
+      <c r="D210">
+        <v>38</v>
+      </c>
       <c r="E210">
         <v>2</v>
       </c>
       <c r="F210" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G210" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H210" t="s">
-        <v>528</v>
-      </c>
-      <c r="I210" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="J210" t="s">
         <v>19</v>
@@ -12472,7 +12312,7 @@
         <v>20</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P210">
         <v>136</v>
@@ -12486,25 +12326,25 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G211" t="s">
-        <v>71</v>
+        <v>564</v>
       </c>
       <c r="H211" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
       <c r="I211" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J211" t="s">
         <v>19</v>
@@ -12513,7 +12353,7 @@
         <v>20</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P211">
         <v>601</v>
@@ -12527,7 +12367,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -12536,16 +12376,16 @@
         <v>2</v>
       </c>
       <c r="F212" t="s">
-        <v>565</v>
+        <v>178</v>
       </c>
       <c r="G212" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H212" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="I212" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J212" t="s">
         <v>19</v>
@@ -12568,25 +12408,25 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E213">
         <v>2</v>
       </c>
       <c r="F213" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G213" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H213" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="I213" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J213" t="s">
         <v>19</v>
@@ -12595,7 +12435,7 @@
         <v>20</v>
       </c>
       <c r="L213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P213">
         <v>1257</v>
@@ -12609,25 +12449,25 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
       </c>
       <c r="E214">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F214" t="s">
-        <v>299</v>
+        <v>574</v>
       </c>
       <c r="G214" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H214" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="I214" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="J214" t="s">
         <v>19</v>
@@ -12650,7 +12490,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C215" t="s">
         <v>14</v>
@@ -12659,16 +12499,16 @@
         <v>2</v>
       </c>
       <c r="F215" t="s">
-        <v>299</v>
+        <v>577</v>
       </c>
       <c r="G215" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H215" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="I215" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="J215" t="s">
         <v>19</v>
@@ -12677,7 +12517,7 @@
         <v>20</v>
       </c>
       <c r="L215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P215">
         <v>281</v>
@@ -12691,25 +12531,25 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F216" t="s">
-        <v>354</v>
+        <v>580</v>
       </c>
       <c r="G216" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H216" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
       <c r="I216" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="J216" t="s">
         <v>19</v>
@@ -12718,7 +12558,7 @@
         <v>20</v>
       </c>
       <c r="L216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P216">
         <v>423</v>
@@ -12732,25 +12572,25 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C217" t="s">
         <v>14</v>
       </c>
       <c r="E217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F217" t="s">
-        <v>299</v>
+        <v>583</v>
       </c>
       <c r="G217" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H217" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I217" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="J217" t="s">
         <v>19</v>
@@ -12773,28 +12613,25 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
-      </c>
-      <c r="D218">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F218" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="G218" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H218" t="s">
-        <v>300</v>
+        <v>422</v>
       </c>
       <c r="I218" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="J218" t="s">
         <v>19</v>
@@ -12817,7 +12654,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="C219" t="s">
         <v>14</v>
@@ -12826,16 +12663,16 @@
         <v>2</v>
       </c>
       <c r="F219" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="G219" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="H219" t="s">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="I219" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="J219" t="s">
         <v>19</v>
@@ -12858,25 +12695,25 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E220">
         <v>2</v>
       </c>
       <c r="F220" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G220" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="H220" t="s">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="I220" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="J220" t="s">
         <v>19</v>
@@ -12899,25 +12736,25 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E221">
         <v>2</v>
       </c>
       <c r="F221" t="s">
+        <v>596</v>
+      </c>
+      <c r="G221" t="s">
         <v>588</v>
       </c>
-      <c r="G221" t="s">
-        <v>71</v>
-      </c>
       <c r="H221" t="s">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="I221" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="J221" t="s">
         <v>19</v>
@@ -12926,7 +12763,7 @@
         <v>20</v>
       </c>
       <c r="L221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P221">
         <v>470</v>
@@ -12940,25 +12777,25 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C222" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E222">
         <v>2</v>
       </c>
       <c r="F222" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="G222" t="s">
-        <v>71</v>
+        <v>588</v>
       </c>
       <c r="H222" t="s">
-        <v>300</v>
+        <v>568</v>
       </c>
       <c r="I222" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="J222" t="s">
         <v>19</v>
@@ -12967,7 +12804,7 @@
         <v>20</v>
       </c>
       <c r="L222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P222">
         <v>393</v>
@@ -12981,22 +12818,25 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C223" t="s">
         <v>22</v>
       </c>
       <c r="E223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="G223" t="s">
-        <v>595</v>
+        <v>421</v>
       </c>
       <c r="H223" t="s">
-        <v>596</v>
+        <v>422</v>
+      </c>
+      <c r="I223" t="s">
+        <v>603</v>
       </c>
       <c r="J223" t="s">
         <v>19</v>
@@ -13005,7 +12845,7 @@
         <v>20</v>
       </c>
       <c r="L223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P223">
         <v>655</v>
@@ -13019,22 +12859,25 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="C224" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="G224" t="s">
-        <v>599</v>
+        <v>421</v>
       </c>
       <c r="H224" t="s">
-        <v>600</v>
+        <v>422</v>
+      </c>
+      <c r="I224" t="s">
+        <v>606</v>
       </c>
       <c r="J224" t="s">
         <v>19</v>
@@ -13057,22 +12900,25 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C225" t="s">
         <v>14</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F225" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G225" t="s">
-        <v>603</v>
+        <v>421</v>
       </c>
       <c r="H225" t="s">
-        <v>604</v>
+        <v>422</v>
+      </c>
+      <c r="I225" t="s">
+        <v>608</v>
       </c>
       <c r="J225" t="s">
         <v>19</v>
@@ -13081,7 +12927,7 @@
         <v>20</v>
       </c>
       <c r="L225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P225">
         <v>1334</v>
@@ -13095,25 +12941,25 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>609</v>
+      </c>
+      <c r="C226" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226">
+        <v>3</v>
+      </c>
+      <c r="F226" t="s">
         <v>605</v>
       </c>
-      <c r="C226" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226">
-        <v>38</v>
-      </c>
-      <c r="E226">
-        <v>2</v>
-      </c>
-      <c r="F226" t="s">
-        <v>606</v>
-      </c>
       <c r="G226" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="H226" t="s">
-        <v>607</v>
+        <v>422</v>
+      </c>
+      <c r="I226" t="s">
+        <v>610</v>
       </c>
       <c r="J226" t="s">
         <v>19</v>
@@ -13136,7 +12982,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C227" t="s">
         <v>14</v>
@@ -13145,13 +12991,13 @@
         <v>2</v>
       </c>
       <c r="F227" t="s">
-        <v>609</v>
+        <v>285</v>
       </c>
       <c r="G227" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
       <c r="H227" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="I227" t="s">
         <v>612</v>
@@ -13163,7 +13009,7 @@
         <v>20</v>
       </c>
       <c r="L227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P227">
         <v>848</v>
@@ -13177,34 +13023,34 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E228">
         <v>2</v>
       </c>
       <c r="F228" t="s">
-        <v>192</v>
+        <v>632</v>
       </c>
       <c r="G228" t="s">
-        <v>71</v>
+        <v>631</v>
       </c>
       <c r="H228" t="s">
-        <v>614</v>
-      </c>
-      <c r="I228" t="s">
-        <v>615</v>
+        <v>630</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>629</v>
       </c>
       <c r="J228" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K228" t="s">
         <v>20</v>
       </c>
       <c r="L228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P228">
         <v>189</v>
@@ -13218,7 +13064,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -13227,25 +13073,25 @@
         <v>2</v>
       </c>
       <c r="F229" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="G229" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="H229" t="s">
-        <v>453</v>
-      </c>
-      <c r="I229" t="s">
-        <v>618</v>
+        <v>630</v>
+      </c>
+      <c r="I229" s="5" t="s">
+        <v>629</v>
       </c>
       <c r="J229" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K229" t="s">
         <v>20</v>
       </c>
       <c r="L229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P229">
         <v>230</v>
@@ -13259,28 +13105,28 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="C230" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E230">
         <v>2</v>
       </c>
       <c r="F230" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="G230" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="H230" t="s">
-        <v>453</v>
-      </c>
-      <c r="I230" t="s">
-        <v>621</v>
+        <v>630</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>629</v>
       </c>
       <c r="J230" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K230" t="s">
         <v>20</v>
@@ -13300,7 +13146,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -13309,19 +13155,19 @@
         <v>2</v>
       </c>
       <c r="F231" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G231" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="H231" t="s">
-        <v>453</v>
-      </c>
-      <c r="I231" t="s">
-        <v>624</v>
+        <v>630</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>629</v>
       </c>
       <c r="J231" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K231" t="s">
         <v>20</v>
@@ -13341,28 +13187,28 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E232">
         <v>2</v>
       </c>
       <c r="F232" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G232" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="H232" t="s">
-        <v>453</v>
+        <v>630</v>
       </c>
       <c r="I232" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="J232" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K232" t="s">
         <v>20</v>
@@ -13382,28 +13228,28 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
+        <v>643</v>
+      </c>
+      <c r="C233" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233" t="s">
+        <v>641</v>
+      </c>
+      <c r="G233" t="s">
+        <v>631</v>
+      </c>
+      <c r="H233" t="s">
+        <v>630</v>
+      </c>
+      <c r="I233" t="s">
+        <v>642</v>
+      </c>
+      <c r="J233" t="s">
         <v>628</v>
-      </c>
-      <c r="C233" t="s">
-        <v>14</v>
-      </c>
-      <c r="E233">
-        <v>2</v>
-      </c>
-      <c r="F233" t="s">
-        <v>629</v>
-      </c>
-      <c r="G233" t="s">
-        <v>452</v>
-      </c>
-      <c r="H233" t="s">
-        <v>453</v>
-      </c>
-      <c r="I233" t="s">
-        <v>630</v>
-      </c>
-      <c r="J233" t="s">
-        <v>19</v>
       </c>
       <c r="K233" t="s">
         <v>20</v>
@@ -13423,34 +13269,34 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
+        <v>646</v>
+      </c>
+      <c r="C234" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G234" t="s">
         <v>631</v>
       </c>
-      <c r="C234" t="s">
-        <v>22</v>
-      </c>
-      <c r="E234">
-        <v>2</v>
-      </c>
-      <c r="F234" t="s">
-        <v>632</v>
-      </c>
-      <c r="G234" t="s">
-        <v>452</v>
-      </c>
       <c r="H234" t="s">
-        <v>453</v>
+        <v>630</v>
       </c>
       <c r="I234" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="J234" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K234" t="s">
         <v>20</v>
       </c>
       <c r="L234">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P234">
         <v>195</v>
@@ -13464,7 +13310,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -13472,20 +13318,20 @@
       <c r="E235">
         <v>2</v>
       </c>
-      <c r="F235" t="s">
-        <v>636</v>
+      <c r="F235" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="G235" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H235" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="I235" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="J235" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K235" t="s">
         <v>20</v>
@@ -13500,30 +13346,33 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="C236" t="s">
+        <v>14</v>
+      </c>
+      <c r="D236">
         <v>22</v>
       </c>
       <c r="E236">
         <v>2</v>
       </c>
-      <c r="F236" t="s">
-        <v>639</v>
+      <c r="F236" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="G236" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="H236" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="I236" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="J236" t="s">
         <v>19</v>
@@ -13541,30 +13390,33 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>641</v>
+      <c r="B237" s="6" t="s">
+        <v>653</v>
       </c>
       <c r="C237" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="D237">
+        <v>22</v>
       </c>
       <c r="E237">
         <v>2</v>
       </c>
-      <c r="F237" t="s">
-        <v>642</v>
+      <c r="F237" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="G237" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="H237" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="I237" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="J237" t="s">
         <v>19</v>
@@ -13582,30 +13434,33 @@
         <v>130</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>644</v>
+      <c r="B238" s="6" t="s">
+        <v>656</v>
       </c>
       <c r="C238" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="D238">
+        <v>20</v>
       </c>
       <c r="E238">
         <v>2</v>
       </c>
-      <c r="F238" t="s">
-        <v>645</v>
+      <c r="F238" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="G238" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="H238" t="s">
-        <v>614</v>
+        <v>651</v>
       </c>
       <c r="I238" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="J238" t="s">
         <v>19</v>
@@ -13623,30 +13478,30 @@
         <v>80</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>647</v>
+      <c r="B239" s="6" t="s">
+        <v>659</v>
       </c>
       <c r="C239" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E239">
         <v>2</v>
       </c>
       <c r="F239" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="G239" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="H239" t="s">
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="I239" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="J239" t="s">
         <v>19</v>
@@ -13664,12 +13519,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" ht="356.25" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>650</v>
+      <c r="B240" s="6" t="s">
+        <v>662</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
@@ -13678,16 +13533,16 @@
         <v>3</v>
       </c>
       <c r="F240" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G240" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="H240" t="s">
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="I240" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="J240" t="s">
         <v>19</v>
@@ -13705,30 +13560,30 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>653</v>
+      <c r="B241" s="6" t="s">
+        <v>664</v>
       </c>
       <c r="C241" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E241">
-        <v>3</v>
-      </c>
-      <c r="F241" t="s">
-        <v>651</v>
+        <v>2</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>665</v>
       </c>
       <c r="G241" t="s">
-        <v>452</v>
+        <v>588</v>
       </c>
       <c r="H241" t="s">
-        <v>453</v>
+        <v>568</v>
       </c>
       <c r="I241" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="J241" t="s">
         <v>19</v>
@@ -13737,7 +13592,7 @@
         <v>20</v>
       </c>
       <c r="L241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P241">
         <v>229</v>
@@ -13746,33 +13601,33 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="384.75" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>655</v>
+      <c r="B242" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
       </c>
       <c r="E242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F242" t="s">
-        <v>651</v>
+        <v>668</v>
       </c>
       <c r="G242" t="s">
-        <v>452</v>
+        <v>631</v>
       </c>
       <c r="H242" t="s">
-        <v>453</v>
+        <v>630</v>
       </c>
       <c r="I242" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="J242" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K242" t="s">
         <v>20</v>
@@ -13787,12 +13642,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>657</v>
+      <c r="B243" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -13801,25 +13656,25 @@
         <v>2</v>
       </c>
       <c r="F243" t="s">
-        <v>299</v>
+        <v>668</v>
       </c>
       <c r="G243" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H243" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="I243" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="J243" t="s">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="K243" t="s">
         <v>20</v>
       </c>
       <c r="L243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P243">
         <v>1564</v>
@@ -13828,12 +13683,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>679</v>
+      <c r="B244" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -13842,19 +13697,19 @@
         <v>2</v>
       </c>
       <c r="F244" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G244" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H244" t="s">
-        <v>676</v>
-      </c>
-      <c r="I244" s="5" t="s">
-        <v>675</v>
+        <v>630</v>
+      </c>
+      <c r="I244" t="s">
+        <v>669</v>
       </c>
       <c r="J244" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K244" t="s">
         <v>20</v>
@@ -13863,12 +13718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>680</v>
+      <c r="B245" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -13877,19 +13732,19 @@
         <v>2</v>
       </c>
       <c r="F245" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G245" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H245" t="s">
-        <v>676</v>
-      </c>
-      <c r="I245" s="5" t="s">
-        <v>675</v>
+        <v>630</v>
+      </c>
+      <c r="I245" t="s">
+        <v>669</v>
       </c>
       <c r="J245" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K245" t="s">
         <v>20</v>
@@ -13903,77 +13758,77 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
       </c>
       <c r="E246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F246" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G246" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H246" t="s">
-        <v>676</v>
-      </c>
-      <c r="I246" s="5" t="s">
-        <v>675</v>
+        <v>630</v>
+      </c>
+      <c r="I246" t="s">
+        <v>669</v>
       </c>
       <c r="J246" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K246" t="s">
         <v>20</v>
       </c>
       <c r="L246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>683</v>
+      <c r="B247" s="6" t="s">
+        <v>674</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
       </c>
       <c r="E247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F247" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G247" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H247" t="s">
-        <v>676</v>
-      </c>
-      <c r="I247" s="5" t="s">
-        <v>675</v>
+        <v>630</v>
+      </c>
+      <c r="I247" t="s">
+        <v>669</v>
       </c>
       <c r="J247" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K247" t="s">
         <v>20</v>
       </c>
       <c r="L247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>686</v>
+      <c r="B248" s="6" t="s">
+        <v>675</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -13982,19 +13837,19 @@
         <v>2</v>
       </c>
       <c r="F248" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="G248" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H248" t="s">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="I248" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="J248" t="s">
-        <v>674</v>
+        <v>628</v>
       </c>
       <c r="K248" t="s">
         <v>20</v>
@@ -14003,68 +13858,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>689</v>
+      <c r="B249" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
+      <c r="D249">
+        <v>26</v>
+      </c>
       <c r="E249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F249" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="G249" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H249" t="s">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="I249" t="s">
-        <v>688</v>
-      </c>
-      <c r="J249" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K249" t="s">
         <v>20</v>
       </c>
       <c r="L249">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>692</v>
+      <c r="B250" s="6" t="s">
+        <v>679</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
       </c>
+      <c r="D250">
+        <v>27</v>
+      </c>
       <c r="E250">
         <v>2</v>
       </c>
-      <c r="F250" s="6" t="s">
-        <v>690</v>
+      <c r="F250" t="s">
+        <v>680</v>
       </c>
       <c r="G250" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H250" t="s">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="I250" t="s">
-        <v>691</v>
-      </c>
-      <c r="J250" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K250" t="s">
         <v>20</v>
@@ -14073,33 +13928,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>693</v>
+      <c r="B251" s="6" t="s">
+        <v>681</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
       </c>
+      <c r="D251">
+        <v>27</v>
+      </c>
       <c r="E251">
         <v>2</v>
       </c>
-      <c r="F251" s="6" t="s">
-        <v>690</v>
+      <c r="F251" t="s">
+        <v>680</v>
       </c>
       <c r="G251" t="s">
-        <v>677</v>
+        <v>631</v>
       </c>
       <c r="H251" t="s">
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="I251" t="s">
-        <v>691</v>
-      </c>
-      <c r="J251" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K251" t="s">
         <v>20</v>
@@ -14360,12 +14215,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I244" r:id="rId1" xr:uid="{86666C34-BF30-4D79-A68B-D4559BC43379}"/>
-    <hyperlink ref="I245" r:id="rId2" xr:uid="{DB261D38-36AC-4827-ACFC-70A7BDD7E444}"/>
-    <hyperlink ref="I247" r:id="rId3" xr:uid="{6B698E7D-B2E2-4631-B591-570417B61C59}"/>
-    <hyperlink ref="I246" r:id="rId4" xr:uid="{D6131755-FD3D-4611-8676-228B87C4F007}"/>
+    <hyperlink ref="I228" r:id="rId1" xr:uid="{2E716A87-7073-45F7-8C06-4360ED26D2B9}"/>
+    <hyperlink ref="I229" r:id="rId2" xr:uid="{AB6D9E8C-4E13-47F9-9C5B-E26C78814CCC}"/>
+    <hyperlink ref="I231" r:id="rId3" xr:uid="{00157DDB-EA09-43D5-9867-AA5177A9D548}"/>
+    <hyperlink ref="I230" r:id="rId4" xr:uid="{F90E17AD-6816-4E33-8823-9960EFCAB304}"/>
+    <hyperlink ref="F241" r:id="rId5" display="https://www.facebook.com/groups/1305447210166232/user/100000186096581/?__cft__%5b0%5d=AZXol-PdX4krn0oQgv9YsJ4FVunE9vYL-xXVnhBfNaIlN6ufzX_WmwV89kAaxpvZhAzQUH_t0mupEBsf2lq2fpelvOXz1vs6OmYyRUMwoMNSOHVdvnS1vilamboPLu_v9mX_PlDmvRE56tXKBdC-eJvgK8kIF_Y8lRTA0wUA7yRLmGKd86nuu6g3namyOvX788taVpLLJ7m93M2IBZBW3Tlq&amp;__tn__=-UC%2CP-R" xr:uid="{DFE6114D-1674-4256-82D9-F79A23783E66}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>